--- a/raw_ts_data/fd/fd12_metadata.xlsx
+++ b/raw_ts_data/fd/fd12_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmaboudreau/Documents/GitHub/igea22/raw_ts_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncw02\Downloads\IGEA\raw_ts_data\fd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B503E49-EE94-6E4D-89FC-64FD5C60E38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877C0088-378A-480D-9548-E767F7616A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16020" xr2:uid="{02675917-6FB0-1F44-8417-5533CB1D953F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02675917-6FB0-1F44-8417-5533CB1D953F}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>Glass sample bottle froze in fridge and broke 6/3</t>
   </si>
   <si>
-    <t>E7</t>
-  </si>
-  <si>
     <t>UMass Orange</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t xml:space="preserve">Data for total station 2 is a bit funky, ignore all of the info section along with the dashed line remarks. The RefHt for TgtNo 25165829 and TgtID 101 should be 2.02 instead of 2.04. </t>
   </si>
   <si>
-    <t>E10</t>
-  </si>
-  <si>
     <t>UMass Blue</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>Data for total station 2 is wierd in one spot. The RefHt for TgtNo 58720261 TgtID 101 should be 2.04 instead of 2.02</t>
   </si>
   <si>
-    <t>E3</t>
-  </si>
-  <si>
     <t>MM</t>
   </si>
   <si>
@@ -144,9 +135,6 @@
     <t>RedHt for total station 1 should be 2.04m for TgtIDs 102-152</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
     <t>SE</t>
   </si>
   <si>
@@ -186,27 +174,18 @@
     <t>Chilly, snowed most of the day</t>
   </si>
   <si>
-    <t>E13</t>
-  </si>
-  <si>
     <t>OO</t>
   </si>
   <si>
     <t>Cloudy, snowed a little in the morning</t>
   </si>
   <si>
-    <t>E8</t>
-  </si>
-  <si>
     <t>Warm and hazy</t>
   </si>
   <si>
     <t>TP10</t>
   </si>
   <si>
-    <t>E12</t>
-  </si>
-  <si>
     <t>Warm and hazy, bad/unhealthy air quality</t>
   </si>
   <si>
@@ -220,15 +199,33 @@
   </si>
   <si>
     <t>Cool in the morning and from thunderstorms and light rain last night</t>
+  </si>
+  <si>
+    <t>EP7</t>
+  </si>
+  <si>
+    <t>EP10</t>
+  </si>
+  <si>
+    <t>EP3</t>
+  </si>
+  <si>
+    <t>EP1</t>
+  </si>
+  <si>
+    <t>EP13</t>
+  </si>
+  <si>
+    <t>EP8</t>
+  </si>
+  <si>
+    <t>EP12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -241,12 +238,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,6 +257,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -295,12 +295,10 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -312,6 +310,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,25 +631,27 @@
   </sheetPr>
   <dimension ref="A1:AB999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.19921875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="9.796875" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" customWidth="1"/>
+    <col min="2" max="3" width="9.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="15.3984375" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="18.19921875" customWidth="1"/>
-    <col min="9" max="9" width="14.796875" customWidth="1"/>
-    <col min="10" max="10" width="8.19921875" customWidth="1"/>
-    <col min="11" max="12" width="9.796875" customWidth="1"/>
-    <col min="13" max="13" width="24.19921875" customWidth="1"/>
-    <col min="14" max="14" width="42.3984375" customWidth="1"/>
-    <col min="15" max="15" width="57.796875" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" customWidth="1"/>
+    <col min="11" max="12" width="9.77734375" customWidth="1"/>
+    <col min="13" max="13" width="24.21875" customWidth="1"/>
+    <col min="14" max="14" width="42.44140625" customWidth="1"/>
+    <col min="15" max="15" width="57.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -709,7 +711,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
@@ -731,26 +733,26 @@
       <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
       <c r="N2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C3" s="4">
         <v>44714</v>
@@ -771,7 +773,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="3">
         <v>419492</v>
@@ -786,15 +788,15 @@
         <v>1973</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4">
         <v>44714</v>
@@ -815,7 +817,7 @@
         <v>16</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J4" s="3">
         <v>424999</v>
@@ -830,15 +832,15 @@
         <v>948</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4">
         <v>44715</v>
@@ -856,10 +858,10 @@
         <v>1.6</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J5" s="3">
         <v>404804</v>
@@ -874,9 +876,9 @@
         <v>979</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" s="4">
         <v>44716</v>
@@ -897,15 +899,15 @@
         <v>16</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4">
         <v>44716</v>
@@ -926,7 +928,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J7" s="3">
         <v>420492</v>
@@ -941,12 +943,12 @@
         <v>1014</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C8" s="4">
         <v>44720</v>
@@ -964,10 +966,10 @@
         <v>3.4</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" s="3">
         <v>398143</v>
@@ -982,12 +984,12 @@
         <v>143</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4">
         <v>44720</v>
@@ -999,10 +1001,10 @@
         <v>6</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" s="3">
         <v>398150</v>
@@ -1016,16 +1018,16 @@
       <c r="M9" s="3">
         <v>165</v>
       </c>
-      <c r="O9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C10" s="4">
         <v>44721</v>
@@ -1043,10 +1045,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" s="3">
         <v>418127</v>
@@ -1061,18 +1063,18 @@
         <v>166</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4">
         <v>44721</v>
@@ -1084,10 +1086,10 @@
         <v>10.3</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11" s="3">
         <v>418146</v>
@@ -1102,12 +1104,12 @@
         <v>167</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4">
         <v>44722</v>
@@ -1119,10 +1121,10 @@
         <v>8.1</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J12" s="3">
         <v>426409</v>
@@ -1137,15 +1139,15 @@
         <v>186</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4">
         <v>44722</v>
@@ -1157,10 +1159,10 @@
         <v>7.8</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J13" s="3">
         <v>426402</v>
@@ -1175,12 +1177,12 @@
         <v>1088</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C14" s="4">
         <v>44723</v>
@@ -1198,10 +1200,10 @@
         <v>2.7</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14" s="3">
         <v>426710</v>
@@ -1216,12 +1218,12 @@
         <v>206</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C15" s="4">
         <v>44725</v>
@@ -1239,10 +1241,10 @@
         <v>8.1</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J15" s="3">
         <v>420598</v>
@@ -1257,12 +1259,12 @@
         <v>1119</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C16" s="4">
         <v>44725</v>
@@ -1280,10 +1282,10 @@
         <v>16.2</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J16" s="3">
         <v>419866</v>
@@ -1297,13 +1299,13 @@
       <c r="M16" s="3">
         <v>1161</v>
       </c>
-      <c r="P16" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P16" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4">
         <v>44725</v>
@@ -1315,10 +1317,10 @@
         <v>13.6</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J17" s="3">
         <v>419864</v>
@@ -1332,13 +1334,13 @@
       <c r="M17" s="3">
         <v>1174</v>
       </c>
-      <c r="P17" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P17" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C18" s="4">
         <v>44726</v>
@@ -1356,10 +1358,10 @@
         <v>7.4</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J18" s="3">
         <v>427391</v>
@@ -1374,12 +1376,12 @@
         <v>1186</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C19" s="4">
         <v>44726</v>
@@ -1391,10 +1393,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J19" s="3">
         <v>427349</v>
@@ -1409,9 +1411,9 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C20" s="4">
         <v>44727</v>
@@ -1423,10 +1425,10 @@
         <v>13.2</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J20" s="3">
         <v>425816</v>
@@ -1441,15 +1443,15 @@
         <v>1220</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C21" s="4">
         <v>44728</v>
@@ -1467,10 +1469,10 @@
         <v>8.9</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J21" s="3">
         <v>412860</v>
@@ -1485,12 +1487,12 @@
         <v>291</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C22" s="4">
         <v>44729</v>
@@ -1502,10 +1504,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22" s="3">
         <v>412916</v>
@@ -1520,2935 +1522,2935 @@
         <v>292</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C52" s="4"/>
     </row>
-    <row r="53" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C56" s="4"/>
     </row>
-    <row r="57" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C58" s="4"/>
     </row>
-    <row r="59" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C59" s="4"/>
     </row>
-    <row r="60" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C60" s="4"/>
     </row>
-    <row r="61" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C61" s="4"/>
     </row>
-    <row r="62" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C62" s="4"/>
     </row>
-    <row r="63" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C63" s="4"/>
     </row>
-    <row r="64" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C64" s="4"/>
     </row>
-    <row r="65" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C65" s="4"/>
     </row>
-    <row r="66" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C66" s="4"/>
     </row>
-    <row r="67" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C67" s="4"/>
     </row>
-    <row r="68" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C68" s="4"/>
     </row>
-    <row r="69" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C69" s="4"/>
     </row>
-    <row r="70" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C70" s="4"/>
     </row>
-    <row r="71" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C71" s="4"/>
     </row>
-    <row r="72" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C72" s="4"/>
     </row>
-    <row r="73" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C73" s="4"/>
     </row>
-    <row r="74" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C74" s="4"/>
     </row>
-    <row r="75" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C75" s="4"/>
     </row>
-    <row r="76" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C76" s="4"/>
     </row>
-    <row r="77" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C77" s="4"/>
     </row>
-    <row r="78" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C78" s="4"/>
     </row>
-    <row r="79" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C79" s="4"/>
     </row>
-    <row r="80" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C80" s="4"/>
     </row>
-    <row r="81" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C81" s="4"/>
     </row>
-    <row r="82" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C82" s="4"/>
     </row>
-    <row r="83" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C83" s="4"/>
     </row>
-    <row r="84" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C84" s="4"/>
     </row>
-    <row r="85" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C85" s="4"/>
     </row>
-    <row r="86" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C86" s="4"/>
     </row>
-    <row r="87" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C87" s="4"/>
     </row>
-    <row r="88" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C88" s="4"/>
     </row>
-    <row r="89" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C89" s="4"/>
     </row>
-    <row r="90" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C90" s="4"/>
     </row>
-    <row r="91" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C91" s="4"/>
     </row>
-    <row r="92" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C92" s="4"/>
     </row>
-    <row r="93" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C93" s="4"/>
     </row>
-    <row r="94" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C94" s="4"/>
     </row>
-    <row r="95" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C95" s="4"/>
     </row>
-    <row r="96" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C96" s="4"/>
     </row>
-    <row r="97" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C97" s="4"/>
     </row>
-    <row r="98" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C98" s="4"/>
     </row>
-    <row r="99" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C99" s="4"/>
     </row>
-    <row r="100" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C101" s="4"/>
     </row>
-    <row r="102" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C102" s="4"/>
     </row>
-    <row r="103" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C103" s="4"/>
     </row>
-    <row r="104" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C104" s="4"/>
     </row>
-    <row r="105" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C105" s="4"/>
     </row>
-    <row r="106" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C107" s="4"/>
     </row>
-    <row r="108" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C108" s="4"/>
     </row>
-    <row r="109" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C109" s="4"/>
     </row>
-    <row r="110" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C110" s="4"/>
     </row>
-    <row r="111" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C111" s="4"/>
     </row>
-    <row r="112" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C112" s="4"/>
     </row>
-    <row r="113" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C113" s="4"/>
     </row>
-    <row r="114" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C114" s="4"/>
     </row>
-    <row r="115" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C115" s="4"/>
     </row>
-    <row r="116" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C116" s="4"/>
     </row>
-    <row r="117" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C117" s="4"/>
     </row>
-    <row r="118" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C118" s="4"/>
     </row>
-    <row r="119" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C119" s="4"/>
     </row>
-    <row r="120" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C120" s="4"/>
     </row>
-    <row r="121" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C121" s="4"/>
     </row>
-    <row r="122" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C122" s="4"/>
     </row>
-    <row r="123" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C123" s="4"/>
     </row>
-    <row r="124" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C124" s="4"/>
     </row>
-    <row r="125" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C125" s="4"/>
     </row>
-    <row r="126" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C126" s="4"/>
     </row>
-    <row r="127" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C127" s="4"/>
     </row>
-    <row r="128" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C128" s="4"/>
     </row>
-    <row r="129" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C129" s="4"/>
     </row>
-    <row r="130" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C130" s="4"/>
     </row>
-    <row r="131" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C131" s="4"/>
     </row>
-    <row r="132" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C132" s="4"/>
     </row>
-    <row r="133" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C133" s="4"/>
     </row>
-    <row r="134" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C134" s="4"/>
     </row>
-    <row r="135" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C135" s="4"/>
     </row>
-    <row r="136" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C136" s="4"/>
     </row>
-    <row r="137" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C137" s="4"/>
     </row>
-    <row r="138" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C138" s="4"/>
     </row>
-    <row r="139" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C139" s="4"/>
     </row>
-    <row r="140" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C140" s="4"/>
     </row>
-    <row r="141" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C141" s="4"/>
     </row>
-    <row r="142" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C142" s="4"/>
     </row>
-    <row r="143" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C143" s="4"/>
     </row>
-    <row r="144" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C144" s="4"/>
     </row>
-    <row r="145" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C145" s="4"/>
     </row>
-    <row r="146" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C146" s="4"/>
     </row>
-    <row r="147" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C147" s="4"/>
     </row>
-    <row r="148" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C148" s="4"/>
     </row>
-    <row r="149" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C149" s="4"/>
     </row>
-    <row r="150" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C150" s="4"/>
     </row>
-    <row r="151" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C151" s="4"/>
     </row>
-    <row r="152" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C152" s="4"/>
     </row>
-    <row r="153" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C153" s="4"/>
     </row>
-    <row r="154" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C154" s="4"/>
     </row>
-    <row r="155" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C155" s="4"/>
     </row>
-    <row r="156" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C156" s="4"/>
     </row>
-    <row r="157" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C157" s="4"/>
     </row>
-    <row r="158" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C158" s="4"/>
     </row>
-    <row r="159" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C159" s="4"/>
     </row>
-    <row r="160" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C160" s="4"/>
     </row>
-    <row r="161" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C161" s="4"/>
     </row>
-    <row r="162" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C162" s="4"/>
     </row>
-    <row r="163" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C163" s="4"/>
     </row>
-    <row r="164" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C164" s="4"/>
     </row>
-    <row r="165" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C165" s="4"/>
     </row>
-    <row r="166" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C166" s="4"/>
     </row>
-    <row r="167" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C167" s="4"/>
     </row>
-    <row r="168" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C168" s="4"/>
     </row>
-    <row r="169" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C169" s="4"/>
     </row>
-    <row r="170" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C170" s="4"/>
     </row>
-    <row r="171" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C171" s="4"/>
     </row>
-    <row r="172" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C172" s="4"/>
     </row>
-    <row r="173" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C173" s="4"/>
     </row>
-    <row r="174" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C174" s="4"/>
     </row>
-    <row r="175" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C175" s="4"/>
     </row>
-    <row r="176" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C177" s="4"/>
     </row>
-    <row r="178" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C178" s="4"/>
     </row>
-    <row r="179" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C179" s="4"/>
     </row>
-    <row r="180" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C180" s="4"/>
     </row>
-    <row r="181" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C181" s="4"/>
     </row>
-    <row r="182" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C182" s="4"/>
     </row>
-    <row r="183" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C183" s="4"/>
     </row>
-    <row r="184" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C184" s="4"/>
     </row>
-    <row r="185" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C185" s="4"/>
     </row>
-    <row r="186" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C186" s="4"/>
     </row>
-    <row r="187" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C187" s="4"/>
     </row>
-    <row r="188" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C188" s="4"/>
     </row>
-    <row r="189" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C189" s="4"/>
     </row>
-    <row r="190" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C190" s="4"/>
     </row>
-    <row r="191" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C191" s="4"/>
     </row>
-    <row r="192" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C192" s="4"/>
     </row>
-    <row r="193" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C193" s="4"/>
     </row>
-    <row r="194" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C194" s="4"/>
     </row>
-    <row r="195" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C195" s="4"/>
     </row>
-    <row r="196" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C196" s="4"/>
     </row>
-    <row r="197" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C197" s="4"/>
     </row>
-    <row r="198" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C198" s="4"/>
     </row>
-    <row r="199" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C199" s="4"/>
     </row>
-    <row r="200" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C200" s="4"/>
     </row>
-    <row r="201" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C201" s="4"/>
     </row>
-    <row r="202" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C202" s="4"/>
     </row>
-    <row r="203" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C203" s="4"/>
     </row>
-    <row r="204" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C204" s="4"/>
     </row>
-    <row r="205" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C205" s="4"/>
     </row>
-    <row r="206" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C206" s="4"/>
     </row>
-    <row r="207" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C207" s="4"/>
     </row>
-    <row r="208" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C208" s="4"/>
     </row>
-    <row r="209" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C209" s="4"/>
     </row>
-    <row r="210" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C210" s="4"/>
     </row>
-    <row r="211" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C211" s="4"/>
     </row>
-    <row r="212" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C212" s="4"/>
     </row>
-    <row r="213" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C213" s="4"/>
     </row>
-    <row r="214" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C214" s="4"/>
     </row>
-    <row r="215" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C215" s="4"/>
     </row>
-    <row r="216" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C216" s="4"/>
     </row>
-    <row r="217" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C217" s="4"/>
     </row>
-    <row r="218" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C218" s="4"/>
     </row>
-    <row r="219" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C219" s="4"/>
     </row>
-    <row r="220" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C220" s="4"/>
     </row>
-    <row r="221" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C221" s="4"/>
     </row>
-    <row r="222" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C222" s="4"/>
     </row>
-    <row r="223" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C223" s="4"/>
     </row>
-    <row r="224" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C224" s="4"/>
     </row>
-    <row r="225" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C225" s="4"/>
     </row>
-    <row r="226" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C226" s="4"/>
     </row>
-    <row r="227" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C227" s="4"/>
     </row>
-    <row r="228" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C228" s="4"/>
     </row>
-    <row r="229" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C229" s="4"/>
     </row>
-    <row r="230" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C230" s="4"/>
     </row>
-    <row r="231" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C231" s="4"/>
     </row>
-    <row r="232" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C232" s="4"/>
     </row>
-    <row r="233" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C233" s="4"/>
     </row>
-    <row r="234" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C234" s="4"/>
     </row>
-    <row r="235" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C235" s="4"/>
     </row>
-    <row r="236" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C236" s="4"/>
     </row>
-    <row r="237" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C237" s="4"/>
     </row>
-    <row r="238" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C238" s="4"/>
     </row>
-    <row r="239" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C239" s="4"/>
     </row>
-    <row r="240" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C240" s="4"/>
     </row>
-    <row r="241" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C241" s="4"/>
     </row>
-    <row r="242" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C242" s="4"/>
     </row>
-    <row r="243" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C243" s="4"/>
     </row>
-    <row r="244" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C244" s="4"/>
     </row>
-    <row r="245" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C245" s="4"/>
     </row>
-    <row r="246" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C246" s="4"/>
     </row>
-    <row r="247" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C247" s="4"/>
     </row>
-    <row r="248" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C248" s="4"/>
     </row>
-    <row r="249" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C249" s="4"/>
     </row>
-    <row r="250" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C250" s="4"/>
     </row>
-    <row r="251" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C251" s="4"/>
     </row>
-    <row r="252" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C252" s="4"/>
     </row>
-    <row r="253" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C253" s="4"/>
     </row>
-    <row r="254" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C254" s="4"/>
     </row>
-    <row r="255" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C255" s="4"/>
     </row>
-    <row r="256" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C256" s="4"/>
     </row>
-    <row r="257" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="257" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C257" s="4"/>
     </row>
-    <row r="258" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="258" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C258" s="4"/>
     </row>
-    <row r="259" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="259" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C259" s="4"/>
     </row>
-    <row r="260" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="260" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C260" s="4"/>
     </row>
-    <row r="261" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="261" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C261" s="4"/>
     </row>
-    <row r="262" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="262" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C262" s="4"/>
     </row>
-    <row r="263" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="263" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C263" s="4"/>
     </row>
-    <row r="264" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="264" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C264" s="4"/>
     </row>
-    <row r="265" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="265" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C265" s="4"/>
     </row>
-    <row r="266" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C266" s="4"/>
     </row>
-    <row r="267" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="267" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C267" s="4"/>
     </row>
-    <row r="268" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="268" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C268" s="4"/>
     </row>
-    <row r="269" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="269" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C269" s="4"/>
     </row>
-    <row r="270" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="270" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C270" s="4"/>
     </row>
-    <row r="271" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="271" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C271" s="4"/>
     </row>
-    <row r="272" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="272" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C272" s="4"/>
     </row>
-    <row r="273" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="273" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C273" s="4"/>
     </row>
-    <row r="274" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C274" s="4"/>
     </row>
-    <row r="275" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C275" s="4"/>
     </row>
-    <row r="276" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C276" s="4"/>
     </row>
-    <row r="277" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C277" s="4"/>
     </row>
-    <row r="278" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C278" s="4"/>
     </row>
-    <row r="279" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C279" s="4"/>
     </row>
-    <row r="280" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C280" s="4"/>
     </row>
-    <row r="281" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C281" s="4"/>
     </row>
-    <row r="282" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C282" s="4"/>
     </row>
-    <row r="283" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C283" s="4"/>
     </row>
-    <row r="284" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C284" s="4"/>
     </row>
-    <row r="285" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C285" s="4"/>
     </row>
-    <row r="286" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="286" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C286" s="4"/>
     </row>
-    <row r="287" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="287" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C287" s="4"/>
     </row>
-    <row r="288" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="288" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C288" s="4"/>
     </row>
-    <row r="289" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C289" s="4"/>
     </row>
-    <row r="290" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C290" s="4"/>
     </row>
-    <row r="291" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C291" s="4"/>
     </row>
-    <row r="292" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C292" s="4"/>
     </row>
-    <row r="293" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C293" s="4"/>
     </row>
-    <row r="294" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="294" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C294" s="4"/>
     </row>
-    <row r="295" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="295" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C295" s="4"/>
     </row>
-    <row r="296" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="296" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C296" s="4"/>
     </row>
-    <row r="297" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="297" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C297" s="4"/>
     </row>
-    <row r="298" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="298" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C298" s="4"/>
     </row>
-    <row r="299" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="299" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C299" s="4"/>
     </row>
-    <row r="300" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C300" s="4"/>
     </row>
-    <row r="301" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C301" s="4"/>
     </row>
-    <row r="302" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="302" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C302" s="4"/>
     </row>
-    <row r="303" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="303" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C303" s="4"/>
     </row>
-    <row r="304" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="304" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C304" s="4"/>
     </row>
-    <row r="305" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="305" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C305" s="4"/>
     </row>
-    <row r="306" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="306" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C306" s="4"/>
     </row>
-    <row r="307" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="307" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C307" s="4"/>
     </row>
-    <row r="308" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="308" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C308" s="4"/>
     </row>
-    <row r="309" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="309" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C309" s="4"/>
     </row>
-    <row r="310" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="310" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C310" s="4"/>
     </row>
-    <row r="311" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="311" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C311" s="4"/>
     </row>
-    <row r="312" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="312" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C312" s="4"/>
     </row>
-    <row r="313" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="313" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C313" s="4"/>
     </row>
-    <row r="314" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="314" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C314" s="4"/>
     </row>
-    <row r="315" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="315" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C315" s="4"/>
     </row>
-    <row r="316" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="316" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C316" s="4"/>
     </row>
-    <row r="317" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="317" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C317" s="4"/>
     </row>
-    <row r="318" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="318" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C318" s="4"/>
     </row>
-    <row r="319" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="319" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C319" s="4"/>
     </row>
-    <row r="320" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="320" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C320" s="4"/>
     </row>
-    <row r="321" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="321" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C321" s="4"/>
     </row>
-    <row r="322" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="322" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C322" s="4"/>
     </row>
-    <row r="323" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="323" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C323" s="4"/>
     </row>
-    <row r="324" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="324" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C324" s="4"/>
     </row>
-    <row r="325" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="325" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C325" s="4"/>
     </row>
-    <row r="326" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="326" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C326" s="4"/>
     </row>
-    <row r="327" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="327" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C327" s="4"/>
     </row>
-    <row r="328" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="328" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C328" s="4"/>
     </row>
-    <row r="329" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="329" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C329" s="4"/>
     </row>
-    <row r="330" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="330" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C330" s="4"/>
     </row>
-    <row r="331" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="331" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C331" s="4"/>
     </row>
-    <row r="332" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="332" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C332" s="4"/>
     </row>
-    <row r="333" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="333" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C333" s="4"/>
     </row>
-    <row r="334" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="334" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C334" s="4"/>
     </row>
-    <row r="335" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="335" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C335" s="4"/>
     </row>
-    <row r="336" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="336" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C336" s="4"/>
     </row>
-    <row r="337" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="337" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C337" s="4"/>
     </row>
-    <row r="338" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="338" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C338" s="4"/>
     </row>
-    <row r="339" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="339" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C339" s="4"/>
     </row>
-    <row r="340" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="340" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C340" s="4"/>
     </row>
-    <row r="341" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="341" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C341" s="4"/>
     </row>
-    <row r="342" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="342" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C342" s="4"/>
     </row>
-    <row r="343" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="343" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C343" s="4"/>
     </row>
-    <row r="344" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="344" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C344" s="4"/>
     </row>
-    <row r="345" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="345" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C345" s="4"/>
     </row>
-    <row r="346" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="346" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C346" s="4"/>
     </row>
-    <row r="347" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="347" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C347" s="4"/>
     </row>
-    <row r="348" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="348" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C348" s="4"/>
     </row>
-    <row r="349" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="349" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C349" s="4"/>
     </row>
-    <row r="350" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="350" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C350" s="4"/>
     </row>
-    <row r="351" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="351" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C351" s="4"/>
     </row>
-    <row r="352" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="352" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C352" s="4"/>
     </row>
-    <row r="353" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="353" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C353" s="4"/>
     </row>
-    <row r="354" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="354" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C354" s="4"/>
     </row>
-    <row r="355" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="355" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C355" s="4"/>
     </row>
-    <row r="356" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="356" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C356" s="4"/>
     </row>
-    <row r="357" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="357" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C357" s="4"/>
     </row>
-    <row r="358" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="358" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C358" s="4"/>
     </row>
-    <row r="359" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="359" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C359" s="4"/>
     </row>
-    <row r="360" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="360" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C360" s="4"/>
     </row>
-    <row r="361" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="361" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C361" s="4"/>
     </row>
-    <row r="362" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="362" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C362" s="4"/>
     </row>
-    <row r="363" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="363" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C363" s="4"/>
     </row>
-    <row r="364" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="364" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C364" s="4"/>
     </row>
-    <row r="365" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="365" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C365" s="4"/>
     </row>
-    <row r="366" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="366" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C366" s="4"/>
     </row>
-    <row r="367" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="367" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C367" s="4"/>
     </row>
-    <row r="368" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="368" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C368" s="4"/>
     </row>
-    <row r="369" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="369" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C369" s="4"/>
     </row>
-    <row r="370" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="370" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C370" s="4"/>
     </row>
-    <row r="371" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="371" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C371" s="4"/>
     </row>
-    <row r="372" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="372" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C372" s="4"/>
     </row>
-    <row r="373" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="373" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C373" s="4"/>
     </row>
-    <row r="374" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="374" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C374" s="4"/>
     </row>
-    <row r="375" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="375" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C375" s="4"/>
     </row>
-    <row r="376" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="376" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C376" s="4"/>
     </row>
-    <row r="377" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="377" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C377" s="4"/>
     </row>
-    <row r="378" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="378" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C378" s="4"/>
     </row>
-    <row r="379" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="379" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C379" s="4"/>
     </row>
-    <row r="380" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="380" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C380" s="4"/>
     </row>
-    <row r="381" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="381" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C381" s="4"/>
     </row>
-    <row r="382" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="382" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C382" s="4"/>
     </row>
-    <row r="383" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="383" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C383" s="4"/>
     </row>
-    <row r="384" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="384" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C384" s="4"/>
     </row>
-    <row r="385" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="385" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C385" s="4"/>
     </row>
-    <row r="386" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="386" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C386" s="4"/>
     </row>
-    <row r="387" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="387" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C387" s="4"/>
     </row>
-    <row r="388" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="388" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C388" s="4"/>
     </row>
-    <row r="389" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="389" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C389" s="4"/>
     </row>
-    <row r="390" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="390" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C390" s="4"/>
     </row>
-    <row r="391" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="391" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C391" s="4"/>
     </row>
-    <row r="392" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="392" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C392" s="4"/>
     </row>
-    <row r="393" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="393" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C393" s="4"/>
     </row>
-    <row r="394" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="394" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C394" s="4"/>
     </row>
-    <row r="395" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="395" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C395" s="4"/>
     </row>
-    <row r="396" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="396" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C396" s="4"/>
     </row>
-    <row r="397" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="397" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C397" s="4"/>
     </row>
-    <row r="398" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="398" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C398" s="4"/>
     </row>
-    <row r="399" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="399" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C399" s="4"/>
     </row>
-    <row r="400" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="400" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C400" s="4"/>
     </row>
-    <row r="401" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="401" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C401" s="4"/>
     </row>
-    <row r="402" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="402" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C402" s="4"/>
     </row>
-    <row r="403" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="403" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C403" s="4"/>
     </row>
-    <row r="404" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="404" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C404" s="4"/>
     </row>
-    <row r="405" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="405" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C405" s="4"/>
     </row>
-    <row r="406" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="406" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C406" s="4"/>
     </row>
-    <row r="407" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="407" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C407" s="4"/>
     </row>
-    <row r="408" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="408" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C408" s="4"/>
     </row>
-    <row r="409" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="409" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C409" s="4"/>
     </row>
-    <row r="410" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="410" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C410" s="4"/>
     </row>
-    <row r="411" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="411" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C411" s="4"/>
     </row>
-    <row r="412" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="412" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C412" s="4"/>
     </row>
-    <row r="413" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="413" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C413" s="4"/>
     </row>
-    <row r="414" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="414" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C414" s="4"/>
     </row>
-    <row r="415" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="415" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C415" s="4"/>
     </row>
-    <row r="416" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="416" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C416" s="4"/>
     </row>
-    <row r="417" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="417" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C417" s="4"/>
     </row>
-    <row r="418" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="418" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C418" s="4"/>
     </row>
-    <row r="419" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="419" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C419" s="4"/>
     </row>
-    <row r="420" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="420" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C420" s="4"/>
     </row>
-    <row r="421" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="421" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C421" s="4"/>
     </row>
-    <row r="422" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="422" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C422" s="4"/>
     </row>
-    <row r="423" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="423" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C423" s="4"/>
     </row>
-    <row r="424" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="424" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C424" s="4"/>
     </row>
-    <row r="425" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="425" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C425" s="4"/>
     </row>
-    <row r="426" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="426" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C426" s="4"/>
     </row>
-    <row r="427" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="427" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C427" s="4"/>
     </row>
-    <row r="428" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="428" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C428" s="4"/>
     </row>
-    <row r="429" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="429" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C429" s="4"/>
     </row>
-    <row r="430" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="430" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C430" s="4"/>
     </row>
-    <row r="431" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="431" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C431" s="4"/>
     </row>
-    <row r="432" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="432" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C432" s="4"/>
     </row>
-    <row r="433" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="433" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C433" s="4"/>
     </row>
-    <row r="434" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="434" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C434" s="4"/>
     </row>
-    <row r="435" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="435" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C435" s="4"/>
     </row>
-    <row r="436" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="436" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C436" s="4"/>
     </row>
-    <row r="437" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="437" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C437" s="4"/>
     </row>
-    <row r="438" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="438" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C438" s="4"/>
     </row>
-    <row r="439" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="439" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C439" s="4"/>
     </row>
-    <row r="440" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="440" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C440" s="4"/>
     </row>
-    <row r="441" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="441" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C441" s="4"/>
     </row>
-    <row r="442" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="442" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C442" s="4"/>
     </row>
-    <row r="443" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="443" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C443" s="4"/>
     </row>
-    <row r="444" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="444" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C444" s="4"/>
     </row>
-    <row r="445" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="445" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C445" s="4"/>
     </row>
-    <row r="446" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="446" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C446" s="4"/>
     </row>
-    <row r="447" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="447" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C447" s="4"/>
     </row>
-    <row r="448" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="448" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C448" s="4"/>
     </row>
-    <row r="449" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="449" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C449" s="4"/>
     </row>
-    <row r="450" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="450" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C450" s="4"/>
     </row>
-    <row r="451" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="451" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C451" s="4"/>
     </row>
-    <row r="452" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="452" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C452" s="4"/>
     </row>
-    <row r="453" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="453" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C453" s="4"/>
     </row>
-    <row r="454" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="454" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C454" s="4"/>
     </row>
-    <row r="455" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="455" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C455" s="4"/>
     </row>
-    <row r="456" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="456" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C456" s="4"/>
     </row>
-    <row r="457" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="457" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C457" s="4"/>
     </row>
-    <row r="458" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="458" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C458" s="4"/>
     </row>
-    <row r="459" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="459" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C459" s="4"/>
     </row>
-    <row r="460" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="460" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C460" s="4"/>
     </row>
-    <row r="461" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="461" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C461" s="4"/>
     </row>
-    <row r="462" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="462" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C462" s="4"/>
     </row>
-    <row r="463" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="463" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C463" s="4"/>
     </row>
-    <row r="464" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="464" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C464" s="4"/>
     </row>
-    <row r="465" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="465" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C465" s="4"/>
     </row>
-    <row r="466" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="466" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C466" s="4"/>
     </row>
-    <row r="467" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="467" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C467" s="4"/>
     </row>
-    <row r="468" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="468" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C468" s="4"/>
     </row>
-    <row r="469" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="469" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C469" s="4"/>
     </row>
-    <row r="470" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="470" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C470" s="4"/>
     </row>
-    <row r="471" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="471" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C471" s="4"/>
     </row>
-    <row r="472" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="472" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C472" s="4"/>
     </row>
-    <row r="473" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="473" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C473" s="4"/>
     </row>
-    <row r="474" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="474" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C474" s="4"/>
     </row>
-    <row r="475" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="475" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C475" s="4"/>
     </row>
-    <row r="476" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="476" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C476" s="4"/>
     </row>
-    <row r="477" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="477" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C477" s="4"/>
     </row>
-    <row r="478" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="478" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C478" s="4"/>
     </row>
-    <row r="479" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="479" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C479" s="4"/>
     </row>
-    <row r="480" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="480" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C480" s="4"/>
     </row>
-    <row r="481" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="481" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C481" s="4"/>
     </row>
-    <row r="482" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="482" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C482" s="4"/>
     </row>
-    <row r="483" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="483" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C483" s="4"/>
     </row>
-    <row r="484" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="484" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C484" s="4"/>
     </row>
-    <row r="485" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="485" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C485" s="4"/>
     </row>
-    <row r="486" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="486" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C486" s="4"/>
     </row>
-    <row r="487" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="487" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C487" s="4"/>
     </row>
-    <row r="488" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="488" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C488" s="4"/>
     </row>
-    <row r="489" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="489" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C489" s="4"/>
     </row>
-    <row r="490" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="490" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C490" s="4"/>
     </row>
-    <row r="491" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="491" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C491" s="4"/>
     </row>
-    <row r="492" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="492" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C492" s="4"/>
     </row>
-    <row r="493" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="493" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C493" s="4"/>
     </row>
-    <row r="494" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="494" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C494" s="4"/>
     </row>
-    <row r="495" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="495" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C495" s="4"/>
     </row>
-    <row r="496" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="496" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C496" s="4"/>
     </row>
-    <row r="497" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="497" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C497" s="4"/>
     </row>
-    <row r="498" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="498" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C498" s="4"/>
     </row>
-    <row r="499" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="499" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C499" s="4"/>
     </row>
-    <row r="500" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="500" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C500" s="4"/>
     </row>
-    <row r="501" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="501" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C501" s="4"/>
     </row>
-    <row r="502" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="502" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C502" s="4"/>
     </row>
-    <row r="503" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="503" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C503" s="4"/>
     </row>
-    <row r="504" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="504" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C504" s="4"/>
     </row>
-    <row r="505" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="505" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C505" s="4"/>
     </row>
-    <row r="506" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="506" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C506" s="4"/>
     </row>
-    <row r="507" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="507" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C507" s="4"/>
     </row>
-    <row r="508" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="508" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C508" s="4"/>
     </row>
-    <row r="509" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="509" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C509" s="4"/>
     </row>
-    <row r="510" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="510" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C510" s="4"/>
     </row>
-    <row r="511" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="511" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C511" s="4"/>
     </row>
-    <row r="512" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="512" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C512" s="4"/>
     </row>
-    <row r="513" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="513" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C513" s="4"/>
     </row>
-    <row r="514" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="514" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C514" s="4"/>
     </row>
-    <row r="515" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="515" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C515" s="4"/>
     </row>
-    <row r="516" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="516" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C516" s="4"/>
     </row>
-    <row r="517" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="517" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C517" s="4"/>
     </row>
-    <row r="518" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="518" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C518" s="4"/>
     </row>
-    <row r="519" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="519" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C519" s="4"/>
     </row>
-    <row r="520" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="520" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C520" s="4"/>
     </row>
-    <row r="521" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="521" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C521" s="4"/>
     </row>
-    <row r="522" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="522" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C522" s="4"/>
     </row>
-    <row r="523" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="523" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C523" s="4"/>
     </row>
-    <row r="524" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="524" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C524" s="4"/>
     </row>
-    <row r="525" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="525" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C525" s="4"/>
     </row>
-    <row r="526" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="526" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C526" s="4"/>
     </row>
-    <row r="527" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="527" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C527" s="4"/>
     </row>
-    <row r="528" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="528" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C528" s="4"/>
     </row>
-    <row r="529" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="529" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C529" s="4"/>
     </row>
-    <row r="530" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="530" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C530" s="4"/>
     </row>
-    <row r="531" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="531" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C531" s="4"/>
     </row>
-    <row r="532" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="532" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C532" s="4"/>
     </row>
-    <row r="533" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="533" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C533" s="4"/>
     </row>
-    <row r="534" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="534" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C534" s="4"/>
     </row>
-    <row r="535" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="535" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C535" s="4"/>
     </row>
-    <row r="536" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="536" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C536" s="4"/>
     </row>
-    <row r="537" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="537" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C537" s="4"/>
     </row>
-    <row r="538" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="538" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C538" s="4"/>
     </row>
-    <row r="539" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="539" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C539" s="4"/>
     </row>
-    <row r="540" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="540" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C540" s="4"/>
     </row>
-    <row r="541" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="541" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C541" s="4"/>
     </row>
-    <row r="542" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="542" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C542" s="4"/>
     </row>
-    <row r="543" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="543" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C543" s="4"/>
     </row>
-    <row r="544" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="544" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C544" s="4"/>
     </row>
-    <row r="545" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="545" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C545" s="4"/>
     </row>
-    <row r="546" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="546" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C546" s="4"/>
     </row>
-    <row r="547" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="547" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C547" s="4"/>
     </row>
-    <row r="548" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="548" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C548" s="4"/>
     </row>
-    <row r="549" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="549" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C549" s="4"/>
     </row>
-    <row r="550" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="550" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C550" s="4"/>
     </row>
-    <row r="551" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="551" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C551" s="4"/>
     </row>
-    <row r="552" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="552" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C552" s="4"/>
     </row>
-    <row r="553" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="553" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C553" s="4"/>
     </row>
-    <row r="554" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="554" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C554" s="4"/>
     </row>
-    <row r="555" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="555" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C555" s="4"/>
     </row>
-    <row r="556" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="556" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C556" s="4"/>
     </row>
-    <row r="557" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="557" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C557" s="4"/>
     </row>
-    <row r="558" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="558" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C558" s="4"/>
     </row>
-    <row r="559" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="559" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C559" s="4"/>
     </row>
-    <row r="560" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="560" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C560" s="4"/>
     </row>
-    <row r="561" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="561" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C561" s="4"/>
     </row>
-    <row r="562" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="562" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C562" s="4"/>
     </row>
-    <row r="563" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="563" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C563" s="4"/>
     </row>
-    <row r="564" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="564" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C564" s="4"/>
     </row>
-    <row r="565" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="565" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C565" s="4"/>
     </row>
-    <row r="566" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="566" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C566" s="4"/>
     </row>
-    <row r="567" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="567" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C567" s="4"/>
     </row>
-    <row r="568" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="568" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C568" s="4"/>
     </row>
-    <row r="569" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="569" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C569" s="4"/>
     </row>
-    <row r="570" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="570" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C570" s="4"/>
     </row>
-    <row r="571" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="571" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C571" s="4"/>
     </row>
-    <row r="572" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="572" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C572" s="4"/>
     </row>
-    <row r="573" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="573" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C573" s="4"/>
     </row>
-    <row r="574" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="574" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C574" s="4"/>
     </row>
-    <row r="575" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="575" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C575" s="4"/>
     </row>
-    <row r="576" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="576" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C576" s="4"/>
     </row>
-    <row r="577" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="577" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C577" s="4"/>
     </row>
-    <row r="578" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="578" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C578" s="4"/>
     </row>
-    <row r="579" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="579" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C579" s="4"/>
     </row>
-    <row r="580" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="580" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C580" s="4"/>
     </row>
-    <row r="581" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="581" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C581" s="4"/>
     </row>
-    <row r="582" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="582" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C582" s="4"/>
     </row>
-    <row r="583" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="583" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C583" s="4"/>
     </row>
-    <row r="584" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="584" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C584" s="4"/>
     </row>
-    <row r="585" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="585" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C585" s="4"/>
     </row>
-    <row r="586" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="586" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C586" s="4"/>
     </row>
-    <row r="587" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="587" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C587" s="4"/>
     </row>
-    <row r="588" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="588" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C588" s="4"/>
     </row>
-    <row r="589" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="589" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C589" s="4"/>
     </row>
-    <row r="590" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="590" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C590" s="4"/>
     </row>
-    <row r="591" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="591" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C591" s="4"/>
     </row>
-    <row r="592" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="592" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C592" s="4"/>
     </row>
-    <row r="593" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="593" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C593" s="4"/>
     </row>
-    <row r="594" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="594" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C594" s="4"/>
     </row>
-    <row r="595" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="595" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C595" s="4"/>
     </row>
-    <row r="596" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="596" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C596" s="4"/>
     </row>
-    <row r="597" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="597" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C597" s="4"/>
     </row>
-    <row r="598" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="598" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C598" s="4"/>
     </row>
-    <row r="599" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="599" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C599" s="4"/>
     </row>
-    <row r="600" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="600" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C600" s="4"/>
     </row>
-    <row r="601" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="601" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C601" s="4"/>
     </row>
-    <row r="602" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="602" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C602" s="4"/>
     </row>
-    <row r="603" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="603" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C603" s="4"/>
     </row>
-    <row r="604" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="604" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C604" s="4"/>
     </row>
-    <row r="605" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="605" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C605" s="4"/>
     </row>
-    <row r="606" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="606" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C606" s="4"/>
     </row>
-    <row r="607" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="607" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C607" s="4"/>
     </row>
-    <row r="608" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="608" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C608" s="4"/>
     </row>
-    <row r="609" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="609" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C609" s="4"/>
     </row>
-    <row r="610" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="610" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C610" s="4"/>
     </row>
-    <row r="611" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="611" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C611" s="4"/>
     </row>
-    <row r="612" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="612" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C612" s="4"/>
     </row>
-    <row r="613" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="613" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C613" s="4"/>
     </row>
-    <row r="614" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="614" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C614" s="4"/>
     </row>
-    <row r="615" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="615" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C615" s="4"/>
     </row>
-    <row r="616" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="616" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C616" s="4"/>
     </row>
-    <row r="617" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="617" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C617" s="4"/>
     </row>
-    <row r="618" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="618" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C618" s="4"/>
     </row>
-    <row r="619" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="619" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C619" s="4"/>
     </row>
-    <row r="620" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="620" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C620" s="4"/>
     </row>
-    <row r="621" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="621" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C621" s="4"/>
     </row>
-    <row r="622" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="622" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C622" s="4"/>
     </row>
-    <row r="623" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="623" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C623" s="4"/>
     </row>
-    <row r="624" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="624" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C624" s="4"/>
     </row>
-    <row r="625" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="625" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C625" s="4"/>
     </row>
-    <row r="626" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="626" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C626" s="4"/>
     </row>
-    <row r="627" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="627" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C627" s="4"/>
     </row>
-    <row r="628" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="628" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C628" s="4"/>
     </row>
-    <row r="629" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="629" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C629" s="4"/>
     </row>
-    <row r="630" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="630" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C630" s="4"/>
     </row>
-    <row r="631" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="631" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C631" s="4"/>
     </row>
-    <row r="632" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="632" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C632" s="4"/>
     </row>
-    <row r="633" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="633" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C633" s="4"/>
     </row>
-    <row r="634" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="634" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C634" s="4"/>
     </row>
-    <row r="635" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="635" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C635" s="4"/>
     </row>
-    <row r="636" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="636" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C636" s="4"/>
     </row>
-    <row r="637" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="637" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C637" s="4"/>
     </row>
-    <row r="638" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="638" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C638" s="4"/>
     </row>
-    <row r="639" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="639" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C639" s="4"/>
     </row>
-    <row r="640" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="640" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C640" s="4"/>
     </row>
-    <row r="641" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="641" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C641" s="4"/>
     </row>
-    <row r="642" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="642" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C642" s="4"/>
     </row>
-    <row r="643" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="643" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C643" s="4"/>
     </row>
-    <row r="644" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="644" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C644" s="4"/>
     </row>
-    <row r="645" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="645" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C645" s="4"/>
     </row>
-    <row r="646" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="646" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C646" s="4"/>
     </row>
-    <row r="647" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="647" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C647" s="4"/>
     </row>
-    <row r="648" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="648" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C648" s="4"/>
     </row>
-    <row r="649" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="649" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C649" s="4"/>
     </row>
-    <row r="650" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="650" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C650" s="4"/>
     </row>
-    <row r="651" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="651" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C651" s="4"/>
     </row>
-    <row r="652" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="652" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C652" s="4"/>
     </row>
-    <row r="653" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="653" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C653" s="4"/>
     </row>
-    <row r="654" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="654" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C654" s="4"/>
     </row>
-    <row r="655" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="655" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C655" s="4"/>
     </row>
-    <row r="656" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="656" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C656" s="4"/>
     </row>
-    <row r="657" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="657" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C657" s="4"/>
     </row>
-    <row r="658" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="658" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C658" s="4"/>
     </row>
-    <row r="659" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="659" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C659" s="4"/>
     </row>
-    <row r="660" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="660" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C660" s="4"/>
     </row>
-    <row r="661" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="661" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C661" s="4"/>
     </row>
-    <row r="662" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="662" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C662" s="4"/>
     </row>
-    <row r="663" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="663" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C663" s="4"/>
     </row>
-    <row r="664" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="664" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C664" s="4"/>
     </row>
-    <row r="665" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="665" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C665" s="4"/>
     </row>
-    <row r="666" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="666" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C666" s="4"/>
     </row>
-    <row r="667" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="667" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C667" s="4"/>
     </row>
-    <row r="668" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="668" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C668" s="4"/>
     </row>
-    <row r="669" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="669" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C669" s="4"/>
     </row>
-    <row r="670" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="670" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C670" s="4"/>
     </row>
-    <row r="671" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="671" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C671" s="4"/>
     </row>
-    <row r="672" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="672" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C672" s="4"/>
     </row>
-    <row r="673" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="673" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C673" s="4"/>
     </row>
-    <row r="674" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="674" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C674" s="4"/>
     </row>
-    <row r="675" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="675" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C675" s="4"/>
     </row>
-    <row r="676" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="676" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C676" s="4"/>
     </row>
-    <row r="677" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="677" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C677" s="4"/>
     </row>
-    <row r="678" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="678" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C678" s="4"/>
     </row>
-    <row r="679" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="679" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C679" s="4"/>
     </row>
-    <row r="680" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="680" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C680" s="4"/>
     </row>
-    <row r="681" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="681" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C681" s="4"/>
     </row>
-    <row r="682" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="682" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C682" s="4"/>
     </row>
-    <row r="683" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="683" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C683" s="4"/>
     </row>
-    <row r="684" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="684" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C684" s="4"/>
     </row>
-    <row r="685" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="685" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C685" s="4"/>
     </row>
-    <row r="686" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="686" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C686" s="4"/>
     </row>
-    <row r="687" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="687" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C687" s="4"/>
     </row>
-    <row r="688" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="688" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C688" s="4"/>
     </row>
-    <row r="689" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="689" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C689" s="4"/>
     </row>
-    <row r="690" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="690" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C690" s="4"/>
     </row>
-    <row r="691" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="691" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C691" s="4"/>
     </row>
-    <row r="692" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="692" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C692" s="4"/>
     </row>
-    <row r="693" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="693" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C693" s="4"/>
     </row>
-    <row r="694" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="694" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C694" s="4"/>
     </row>
-    <row r="695" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="695" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C695" s="4"/>
     </row>
-    <row r="696" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="696" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C696" s="4"/>
     </row>
-    <row r="697" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="697" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C697" s="4"/>
     </row>
-    <row r="698" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="698" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C698" s="4"/>
     </row>
-    <row r="699" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="699" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C699" s="4"/>
     </row>
-    <row r="700" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="700" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C700" s="4"/>
     </row>
-    <row r="701" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="701" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C701" s="4"/>
     </row>
-    <row r="702" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="702" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C702" s="4"/>
     </row>
-    <row r="703" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="703" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C703" s="4"/>
     </row>
-    <row r="704" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="704" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C704" s="4"/>
     </row>
-    <row r="705" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="705" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C705" s="4"/>
     </row>
-    <row r="706" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="706" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C706" s="4"/>
     </row>
-    <row r="707" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="707" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C707" s="4"/>
     </row>
-    <row r="708" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="708" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C708" s="4"/>
     </row>
-    <row r="709" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="709" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C709" s="4"/>
     </row>
-    <row r="710" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="710" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C710" s="4"/>
     </row>
-    <row r="711" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="711" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C711" s="4"/>
     </row>
-    <row r="712" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="712" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C712" s="4"/>
     </row>
-    <row r="713" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="713" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C713" s="4"/>
     </row>
-    <row r="714" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="714" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C714" s="4"/>
     </row>
-    <row r="715" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="715" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C715" s="4"/>
     </row>
-    <row r="716" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="716" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C716" s="4"/>
     </row>
-    <row r="717" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="717" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C717" s="4"/>
     </row>
-    <row r="718" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="718" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C718" s="4"/>
     </row>
-    <row r="719" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="719" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C719" s="4"/>
     </row>
-    <row r="720" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="720" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C720" s="4"/>
     </row>
-    <row r="721" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="721" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C721" s="4"/>
     </row>
-    <row r="722" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="722" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C722" s="4"/>
     </row>
-    <row r="723" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="723" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C723" s="4"/>
     </row>
-    <row r="724" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="724" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C724" s="4"/>
     </row>
-    <row r="725" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="725" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C725" s="4"/>
     </row>
-    <row r="726" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="726" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C726" s="4"/>
     </row>
-    <row r="727" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="727" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C727" s="4"/>
     </row>
-    <row r="728" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="728" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C728" s="4"/>
     </row>
-    <row r="729" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="729" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C729" s="4"/>
     </row>
-    <row r="730" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="730" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C730" s="4"/>
     </row>
-    <row r="731" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="731" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C731" s="4"/>
     </row>
-    <row r="732" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="732" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C732" s="4"/>
     </row>
-    <row r="733" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="733" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C733" s="4"/>
     </row>
-    <row r="734" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="734" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C734" s="4"/>
     </row>
-    <row r="735" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="735" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C735" s="4"/>
     </row>
-    <row r="736" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="736" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C736" s="4"/>
     </row>
-    <row r="737" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="737" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C737" s="4"/>
     </row>
-    <row r="738" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="738" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C738" s="4"/>
     </row>
-    <row r="739" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="739" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C739" s="4"/>
     </row>
-    <row r="740" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="740" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C740" s="4"/>
     </row>
-    <row r="741" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="741" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C741" s="4"/>
     </row>
-    <row r="742" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="742" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C742" s="4"/>
     </row>
-    <row r="743" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="743" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C743" s="4"/>
     </row>
-    <row r="744" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="744" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C744" s="4"/>
     </row>
-    <row r="745" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="745" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C745" s="4"/>
     </row>
-    <row r="746" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="746" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C746" s="4"/>
     </row>
-    <row r="747" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="747" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C747" s="4"/>
     </row>
-    <row r="748" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="748" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C748" s="4"/>
     </row>
-    <row r="749" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="749" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C749" s="4"/>
     </row>
-    <row r="750" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="750" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C750" s="4"/>
     </row>
-    <row r="751" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="751" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C751" s="4"/>
     </row>
-    <row r="752" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="752" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C752" s="4"/>
     </row>
-    <row r="753" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="753" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C753" s="4"/>
     </row>
-    <row r="754" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="754" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C754" s="4"/>
     </row>
-    <row r="755" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="755" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C755" s="4"/>
     </row>
-    <row r="756" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="756" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C756" s="4"/>
     </row>
-    <row r="757" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="757" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C757" s="4"/>
     </row>
-    <row r="758" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="758" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C758" s="4"/>
     </row>
-    <row r="759" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="759" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C759" s="4"/>
     </row>
-    <row r="760" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="760" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C760" s="4"/>
     </row>
-    <row r="761" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="761" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C761" s="4"/>
     </row>
-    <row r="762" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="762" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C762" s="4"/>
     </row>
-    <row r="763" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="763" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C763" s="4"/>
     </row>
-    <row r="764" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="764" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C764" s="4"/>
     </row>
-    <row r="765" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="765" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C765" s="4"/>
     </row>
-    <row r="766" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="766" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C766" s="4"/>
     </row>
-    <row r="767" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="767" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C767" s="4"/>
     </row>
-    <row r="768" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="768" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C768" s="4"/>
     </row>
-    <row r="769" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="769" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C769" s="4"/>
     </row>
-    <row r="770" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="770" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C770" s="4"/>
     </row>
-    <row r="771" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="771" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C771" s="4"/>
     </row>
-    <row r="772" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="772" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C772" s="4"/>
     </row>
-    <row r="773" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="773" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C773" s="4"/>
     </row>
-    <row r="774" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="774" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C774" s="4"/>
     </row>
-    <row r="775" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="775" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C775" s="4"/>
     </row>
-    <row r="776" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="776" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C776" s="4"/>
     </row>
-    <row r="777" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="777" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C777" s="4"/>
     </row>
-    <row r="778" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="778" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C778" s="4"/>
     </row>
-    <row r="779" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="779" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C779" s="4"/>
     </row>
-    <row r="780" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="780" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C780" s="4"/>
     </row>
-    <row r="781" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="781" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C781" s="4"/>
     </row>
-    <row r="782" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="782" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C782" s="4"/>
     </row>
-    <row r="783" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="783" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C783" s="4"/>
     </row>
-    <row r="784" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="784" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C784" s="4"/>
     </row>
-    <row r="785" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="785" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C785" s="4"/>
     </row>
-    <row r="786" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="786" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C786" s="4"/>
     </row>
-    <row r="787" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="787" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C787" s="4"/>
     </row>
-    <row r="788" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="788" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C788" s="4"/>
     </row>
-    <row r="789" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="789" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C789" s="4"/>
     </row>
-    <row r="790" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="790" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C790" s="4"/>
     </row>
-    <row r="791" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="791" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C791" s="4"/>
     </row>
-    <row r="792" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="792" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C792" s="4"/>
     </row>
-    <row r="793" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="793" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C793" s="4"/>
     </row>
-    <row r="794" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="794" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C794" s="4"/>
     </row>
-    <row r="795" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="795" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C795" s="4"/>
     </row>
-    <row r="796" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="796" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C796" s="4"/>
     </row>
-    <row r="797" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="797" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C797" s="4"/>
     </row>
-    <row r="798" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="798" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C798" s="4"/>
     </row>
-    <row r="799" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="799" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C799" s="4"/>
     </row>
-    <row r="800" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="800" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C800" s="4"/>
     </row>
-    <row r="801" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="801" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C801" s="4"/>
     </row>
-    <row r="802" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="802" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C802" s="4"/>
     </row>
-    <row r="803" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="803" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C803" s="4"/>
     </row>
-    <row r="804" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="804" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C804" s="4"/>
     </row>
-    <row r="805" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="805" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C805" s="4"/>
     </row>
-    <row r="806" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="806" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C806" s="4"/>
     </row>
-    <row r="807" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="807" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C807" s="4"/>
     </row>
-    <row r="808" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="808" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C808" s="4"/>
     </row>
-    <row r="809" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="809" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C809" s="4"/>
     </row>
-    <row r="810" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="810" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C810" s="4"/>
     </row>
-    <row r="811" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="811" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C811" s="4"/>
     </row>
-    <row r="812" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="812" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C812" s="4"/>
     </row>
-    <row r="813" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="813" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C813" s="4"/>
     </row>
-    <row r="814" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="814" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C814" s="4"/>
     </row>
-    <row r="815" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="815" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C815" s="4"/>
     </row>
-    <row r="816" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="816" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C816" s="4"/>
     </row>
-    <row r="817" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="817" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C817" s="4"/>
     </row>
-    <row r="818" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="818" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C818" s="4"/>
     </row>
-    <row r="819" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="819" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C819" s="4"/>
     </row>
-    <row r="820" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="820" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C820" s="4"/>
     </row>
-    <row r="821" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="821" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C821" s="4"/>
     </row>
-    <row r="822" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="822" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C822" s="4"/>
     </row>
-    <row r="823" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="823" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C823" s="4"/>
     </row>
-    <row r="824" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="824" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C824" s="4"/>
     </row>
-    <row r="825" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="825" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C825" s="4"/>
     </row>
-    <row r="826" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="826" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C826" s="4"/>
     </row>
-    <row r="827" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="827" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C827" s="4"/>
     </row>
-    <row r="828" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="828" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C828" s="4"/>
     </row>
-    <row r="829" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="829" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C829" s="4"/>
     </row>
-    <row r="830" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="830" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C830" s="4"/>
     </row>
-    <row r="831" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="831" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C831" s="4"/>
     </row>
-    <row r="832" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="832" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C832" s="4"/>
     </row>
-    <row r="833" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="833" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C833" s="4"/>
     </row>
-    <row r="834" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="834" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C834" s="4"/>
     </row>
-    <row r="835" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="835" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C835" s="4"/>
     </row>
-    <row r="836" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="836" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C836" s="4"/>
     </row>
-    <row r="837" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="837" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C837" s="4"/>
     </row>
-    <row r="838" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="838" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C838" s="4"/>
     </row>
-    <row r="839" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="839" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C839" s="4"/>
     </row>
-    <row r="840" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="840" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C840" s="4"/>
     </row>
-    <row r="841" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="841" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C841" s="4"/>
     </row>
-    <row r="842" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="842" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C842" s="4"/>
     </row>
-    <row r="843" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="843" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C843" s="4"/>
     </row>
-    <row r="844" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="844" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C844" s="4"/>
     </row>
-    <row r="845" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="845" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C845" s="4"/>
     </row>
-    <row r="846" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="846" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C846" s="4"/>
     </row>
-    <row r="847" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="847" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C847" s="4"/>
     </row>
-    <row r="848" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="848" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C848" s="4"/>
     </row>
-    <row r="849" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="849" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C849" s="4"/>
     </row>
-    <row r="850" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="850" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C850" s="4"/>
     </row>
-    <row r="851" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="851" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C851" s="4"/>
     </row>
-    <row r="852" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="852" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C852" s="4"/>
     </row>
-    <row r="853" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="853" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C853" s="4"/>
     </row>
-    <row r="854" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="854" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C854" s="4"/>
     </row>
-    <row r="855" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="855" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C855" s="4"/>
     </row>
-    <row r="856" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="856" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C856" s="4"/>
     </row>
-    <row r="857" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="857" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C857" s="4"/>
     </row>
-    <row r="858" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="858" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C858" s="4"/>
     </row>
-    <row r="859" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="859" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C859" s="4"/>
     </row>
-    <row r="860" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="860" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C860" s="4"/>
     </row>
-    <row r="861" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="861" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C861" s="4"/>
     </row>
-    <row r="862" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="862" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C862" s="4"/>
     </row>
-    <row r="863" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="863" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C863" s="4"/>
     </row>
-    <row r="864" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="864" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C864" s="4"/>
     </row>
-    <row r="865" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="865" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C865" s="4"/>
     </row>
-    <row r="866" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="866" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C866" s="4"/>
     </row>
-    <row r="867" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="867" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C867" s="4"/>
     </row>
-    <row r="868" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="868" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C868" s="4"/>
     </row>
-    <row r="869" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="869" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C869" s="4"/>
     </row>
-    <row r="870" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="870" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C870" s="4"/>
     </row>
-    <row r="871" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="871" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C871" s="4"/>
     </row>
-    <row r="872" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="872" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C872" s="4"/>
     </row>
-    <row r="873" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="873" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C873" s="4"/>
     </row>
-    <row r="874" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="874" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C874" s="4"/>
     </row>
-    <row r="875" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="875" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C875" s="4"/>
     </row>
-    <row r="876" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="876" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C876" s="4"/>
     </row>
-    <row r="877" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="877" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C877" s="4"/>
     </row>
-    <row r="878" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="878" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C878" s="4"/>
     </row>
-    <row r="879" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="879" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C879" s="4"/>
     </row>
-    <row r="880" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="880" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C880" s="4"/>
     </row>
-    <row r="881" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="881" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C881" s="4"/>
     </row>
-    <row r="882" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="882" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C882" s="4"/>
     </row>
-    <row r="883" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="883" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C883" s="4"/>
     </row>
-    <row r="884" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="884" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C884" s="4"/>
     </row>
-    <row r="885" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="885" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C885" s="4"/>
     </row>
-    <row r="886" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="886" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C886" s="4"/>
     </row>
-    <row r="887" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="887" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C887" s="4"/>
     </row>
-    <row r="888" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="888" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C888" s="4"/>
     </row>
-    <row r="889" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="889" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C889" s="4"/>
     </row>
-    <row r="890" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="890" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C890" s="4"/>
     </row>
-    <row r="891" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="891" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C891" s="4"/>
     </row>
-    <row r="892" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="892" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C892" s="4"/>
     </row>
-    <row r="893" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="893" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C893" s="4"/>
     </row>
-    <row r="894" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="894" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C894" s="4"/>
     </row>
-    <row r="895" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="895" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C895" s="4"/>
     </row>
-    <row r="896" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="896" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C896" s="4"/>
     </row>
-    <row r="897" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="897" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C897" s="4"/>
     </row>
-    <row r="898" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="898" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C898" s="4"/>
     </row>
-    <row r="899" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="899" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C899" s="4"/>
     </row>
-    <row r="900" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="900" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C900" s="4"/>
     </row>
-    <row r="901" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="901" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C901" s="4"/>
     </row>
-    <row r="902" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="902" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C902" s="4"/>
     </row>
-    <row r="903" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="903" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C903" s="4"/>
     </row>
-    <row r="904" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="904" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C904" s="4"/>
     </row>
-    <row r="905" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="905" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C905" s="4"/>
     </row>
-    <row r="906" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="906" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C906" s="4"/>
     </row>
-    <row r="907" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="907" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C907" s="4"/>
     </row>
-    <row r="908" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="908" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C908" s="4"/>
     </row>
-    <row r="909" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="909" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C909" s="4"/>
     </row>
-    <row r="910" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="910" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C910" s="4"/>
     </row>
-    <row r="911" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="911" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C911" s="4"/>
     </row>
-    <row r="912" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="912" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C912" s="4"/>
     </row>
-    <row r="913" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="913" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C913" s="4"/>
     </row>
-    <row r="914" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="914" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C914" s="4"/>
     </row>
-    <row r="915" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="915" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C915" s="4"/>
     </row>
-    <row r="916" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="916" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C916" s="4"/>
     </row>
-    <row r="917" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="917" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C917" s="4"/>
     </row>
-    <row r="918" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="918" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C918" s="4"/>
     </row>
-    <row r="919" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="919" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C919" s="4"/>
     </row>
-    <row r="920" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="920" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C920" s="4"/>
     </row>
-    <row r="921" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="921" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C921" s="4"/>
     </row>
-    <row r="922" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="922" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C922" s="4"/>
     </row>
-    <row r="923" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="923" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C923" s="4"/>
     </row>
-    <row r="924" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="924" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C924" s="4"/>
     </row>
-    <row r="925" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="925" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C925" s="4"/>
     </row>
-    <row r="926" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="926" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C926" s="4"/>
     </row>
-    <row r="927" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="927" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C927" s="4"/>
     </row>
-    <row r="928" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="928" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C928" s="4"/>
     </row>
-    <row r="929" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="929" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C929" s="4"/>
     </row>
-    <row r="930" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="930" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C930" s="4"/>
     </row>
-    <row r="931" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="931" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C931" s="4"/>
     </row>
-    <row r="932" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="932" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C932" s="4"/>
     </row>
-    <row r="933" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="933" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C933" s="4"/>
     </row>
-    <row r="934" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="934" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C934" s="4"/>
     </row>
-    <row r="935" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="935" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C935" s="4"/>
     </row>
-    <row r="936" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="936" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C936" s="4"/>
     </row>
-    <row r="937" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="937" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C937" s="4"/>
     </row>
-    <row r="938" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="938" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C938" s="4"/>
     </row>
-    <row r="939" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="939" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C939" s="4"/>
     </row>
-    <row r="940" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="940" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C940" s="4"/>
     </row>
-    <row r="941" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="941" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C941" s="4"/>
     </row>
-    <row r="942" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="942" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C942" s="4"/>
     </row>
-    <row r="943" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="943" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C943" s="4"/>
     </row>
-    <row r="944" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="944" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C944" s="4"/>
     </row>
-    <row r="945" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="945" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C945" s="4"/>
     </row>
-    <row r="946" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="946" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C946" s="4"/>
     </row>
-    <row r="947" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="947" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C947" s="4"/>
     </row>
-    <row r="948" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="948" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C948" s="4"/>
     </row>
-    <row r="949" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="949" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C949" s="4"/>
     </row>
-    <row r="950" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="950" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C950" s="4"/>
     </row>
-    <row r="951" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="951" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C951" s="4"/>
     </row>
-    <row r="952" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="952" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C952" s="4"/>
     </row>
-    <row r="953" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="953" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C953" s="4"/>
     </row>
-    <row r="954" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="954" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C954" s="4"/>
     </row>
-    <row r="955" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="955" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C955" s="4"/>
     </row>
-    <row r="956" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="956" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C956" s="4"/>
     </row>
-    <row r="957" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="957" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C957" s="4"/>
     </row>
-    <row r="958" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="958" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C958" s="4"/>
     </row>
-    <row r="959" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="959" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C959" s="4"/>
     </row>
-    <row r="960" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="960" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C960" s="4"/>
     </row>
-    <row r="961" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="961" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C961" s="4"/>
     </row>
-    <row r="962" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="962" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C962" s="4"/>
     </row>
-    <row r="963" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="963" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C963" s="4"/>
     </row>
-    <row r="964" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="964" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C964" s="4"/>
     </row>
-    <row r="965" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="965" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C965" s="4"/>
     </row>
-    <row r="966" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="966" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C966" s="4"/>
     </row>
-    <row r="967" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="967" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C967" s="4"/>
     </row>
-    <row r="968" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="968" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C968" s="4"/>
     </row>
-    <row r="969" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="969" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C969" s="4"/>
     </row>
-    <row r="970" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="970" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C970" s="4"/>
     </row>
-    <row r="971" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="971" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C971" s="4"/>
     </row>
-    <row r="972" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="972" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C972" s="4"/>
     </row>
-    <row r="973" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="973" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C973" s="4"/>
     </row>
-    <row r="974" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="974" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C974" s="4"/>
     </row>
-    <row r="975" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="975" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C975" s="4"/>
     </row>
-    <row r="976" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="976" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C976" s="4"/>
     </row>
-    <row r="977" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="977" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C977" s="4"/>
     </row>
-    <row r="978" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="978" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C978" s="4"/>
     </row>
-    <row r="979" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="979" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C979" s="4"/>
     </row>
-    <row r="980" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="980" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C980" s="4"/>
     </row>
-    <row r="981" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="981" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C981" s="4"/>
     </row>
-    <row r="982" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="982" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C982" s="4"/>
     </row>
-    <row r="983" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="983" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C983" s="4"/>
     </row>
-    <row r="984" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="984" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C984" s="4"/>
     </row>
-    <row r="985" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="985" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C985" s="4"/>
     </row>
-    <row r="986" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="986" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C986" s="4"/>
     </row>
-    <row r="987" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="987" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C987" s="4"/>
     </row>
-    <row r="988" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="988" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C988" s="4"/>
     </row>
-    <row r="989" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="989" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C989" s="4"/>
     </row>
-    <row r="990" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="990" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C990" s="4"/>
     </row>
-    <row r="991" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="991" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C991" s="4"/>
     </row>
-    <row r="992" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="992" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C992" s="4"/>
     </row>
-    <row r="993" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="993" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C993" s="4"/>
     </row>
-    <row r="994" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="994" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C994" s="4"/>
     </row>
-    <row r="995" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="995" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C995" s="4"/>
     </row>
-    <row r="996" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="996" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C996" s="4"/>
     </row>
-    <row r="997" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="997" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C997" s="4"/>
     </row>
-    <row r="998" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="998" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C998" s="4"/>
     </row>
-    <row r="999" spans="3:3" ht="14" x14ac:dyDescent="0.2">
+    <row r="999" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="C999" s="4"/>
     </row>
   </sheetData>

--- a/raw_ts_data/fd/fd12_metadata.xlsx
+++ b/raw_ts_data/fd/fd12_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncw02\Downloads\IGEA\raw_ts_data\fd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877C0088-378A-480D-9548-E767F7616A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2813D3-A187-470F-964A-87CF78C548DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02675917-6FB0-1F44-8417-5533CB1D953F}"/>
   </bookViews>
@@ -632,7 +632,7 @@
   <dimension ref="A1:AB999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/raw_ts_data/fd/fd12_metadata.xlsx
+++ b/raw_ts_data/fd/fd12_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncw02\Downloads\IGEA\raw_ts_data\fd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2813D3-A187-470F-964A-87CF78C548DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0111311-294C-4A1F-9068-79BB8FD0F05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02675917-6FB0-1F44-8417-5533CB1D953F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
   <si>
     <t>Reach</t>
   </si>
@@ -150,9 +150,6 @@
     <t>stagnant pool</t>
   </si>
   <si>
-    <t>TP9</t>
-  </si>
-  <si>
     <t>Partly sunny, chilly</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>Pit 1</t>
   </si>
   <si>
-    <t xml:space="preserve">TP9 </t>
-  </si>
-  <si>
     <t>Pit 2</t>
   </si>
   <si>
@@ -195,31 +189,34 @@
     <t>Only took a sample, not active layer measurements</t>
   </si>
   <si>
-    <t>TP6</t>
-  </si>
-  <si>
     <t>Cool in the morning and from thunderstorms and light rain last night</t>
   </si>
   <si>
-    <t>EP7</t>
-  </si>
-  <si>
     <t>EP10</t>
   </si>
   <si>
-    <t>EP3</t>
-  </si>
-  <si>
-    <t>EP1</t>
-  </si>
-  <si>
     <t>EP13</t>
   </si>
   <si>
-    <t>EP8</t>
-  </si>
-  <si>
     <t>EP12</t>
+  </si>
+  <si>
+    <t>EP07</t>
+  </si>
+  <si>
+    <t>EP03</t>
+  </si>
+  <si>
+    <t>EP01</t>
+  </si>
+  <si>
+    <t>TP09</t>
+  </si>
+  <si>
+    <t>EP08</t>
+  </si>
+  <si>
+    <t>TP06</t>
   </si>
 </sst>
 </file>
@@ -632,7 +629,7 @@
   <dimension ref="A1:AB999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -796,7 +793,7 @@
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C4" s="4">
         <v>44714</v>
@@ -840,7 +837,7 @@
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="4">
         <v>44715</v>
@@ -948,7 +945,7 @@
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="4">
         <v>44720</v>
@@ -989,7 +986,7 @@
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="4">
         <v>44720</v>
@@ -1027,7 +1024,7 @@
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C10" s="4">
         <v>44721</v>
@@ -1063,18 +1060,18 @@
         <v>166</v>
       </c>
       <c r="N10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4">
         <v>44721</v>
@@ -1104,12 +1101,12 @@
         <v>167</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="4">
         <v>44722</v>
@@ -1139,15 +1136,15 @@
         <v>186</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="4">
         <v>44722</v>
@@ -1177,12 +1174,12 @@
         <v>1088</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C14" s="4">
         <v>44723</v>
@@ -1200,7 +1197,7 @@
         <v>2.7</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>21</v>
@@ -1218,12 +1215,12 @@
         <v>206</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="4">
         <v>44725</v>
@@ -1259,12 +1256,12 @@
         <v>1119</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="4">
         <v>44725</v>
@@ -1300,12 +1297,12 @@
         <v>1161</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" s="4">
         <v>44725</v>
@@ -1335,12 +1332,12 @@
         <v>1174</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C18" s="4">
         <v>44726</v>
@@ -1376,12 +1373,12 @@
         <v>1186</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C19" s="4">
         <v>44726</v>
@@ -1413,7 +1410,7 @@
     </row>
     <row r="20" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="4">
         <v>44727</v>
@@ -1443,15 +1440,15 @@
         <v>1220</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C21" s="4">
         <v>44728</v>
@@ -1469,7 +1466,7 @@
         <v>8.9</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>21</v>
@@ -1487,12 +1484,12 @@
         <v>291</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C22" s="4">
         <v>44729</v>
@@ -1504,7 +1501,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>21</v>

--- a/raw_ts_data/fd/fd12_metadata.xlsx
+++ b/raw_ts_data/fd/fd12_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncw02\Downloads\IGEA\raw_ts_data\fd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0111311-294C-4A1F-9068-79BB8FD0F05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE8341D-3E90-4077-9B45-880239B731FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02675917-6FB0-1F44-8417-5533CB1D953F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t>Reach</t>
   </si>
@@ -217,6 +217,24 @@
   </si>
   <si>
     <t>TP06</t>
+  </si>
+  <si>
+    <t>EP01.2</t>
+  </si>
+  <si>
+    <t>TP09.2</t>
+  </si>
+  <si>
+    <t>TP17.2</t>
+  </si>
+  <si>
+    <t>TP10.2</t>
+  </si>
+  <si>
+    <t>EP12.2</t>
+  </si>
+  <si>
+    <t>TP06.2</t>
   </si>
 </sst>
 </file>
@@ -629,7 +647,7 @@
   <dimension ref="A1:AB999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -986,7 +1004,7 @@
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C9" s="4">
         <v>44720</v>
@@ -1071,7 +1089,7 @@
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C11" s="4">
         <v>44721</v>
@@ -1106,7 +1124,7 @@
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C12" s="4">
         <v>44722</v>
@@ -1302,7 +1320,7 @@
     </row>
     <row r="17" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C17" s="4">
         <v>44725</v>
@@ -1378,7 +1396,7 @@
     </row>
     <row r="19" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C19" s="4">
         <v>44726</v>
@@ -1489,7 +1507,7 @@
     </row>
     <row r="22" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C22" s="4">
         <v>44729</v>

--- a/raw_ts_data/fd/fd12_metadata.xlsx
+++ b/raw_ts_data/fd/fd12_metadata.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncw02\Downloads\IGEA\raw_ts_data\fd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE8341D-3E90-4077-9B45-880239B731FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9A731B-4E5E-4247-8F11-6563718B9005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02675917-6FB0-1F44-8417-5533CB1D953F}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
   <si>
     <t>Reach</t>
   </si>
@@ -235,13 +237,34 @@
   </si>
   <si>
     <t>TP06.2</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>UNC Orange</t>
+  </si>
+  <si>
+    <t>Overcast</t>
+  </si>
+  <si>
+    <t>Change Point IDs so that point 1 is 102 and so on</t>
+  </si>
+  <si>
+    <t>Sunny, warm, around 50 F</t>
+  </si>
+  <si>
+    <t>TP05</t>
+  </si>
+  <si>
+    <t>EP16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -274,8 +297,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,8 +324,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -303,14 +339,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -327,6 +370,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,7 +695,7 @@
   <dimension ref="A1:AB999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -666,3807 +714,3889 @@
     <col min="15" max="15" width="57.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:28" s="13" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>44713</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>0.41875000000000001</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>0.49444444444444446</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>6.3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="3" t="s">
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>44714</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>0.40347222222222223</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>0.48958333333333331</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>0.42986111111111114</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="1">
         <v>3.1</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="1">
         <v>419492</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="1">
         <v>7624380</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="1">
         <v>609</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="1">
         <v>1973</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>44714</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>0.59791666666666665</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>0.67361111111111116</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <v>0.7</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="1">
         <v>424999</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="1">
         <v>7644535</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="1">
         <v>413</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="1">
         <v>948</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>44715</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>0.43958333333333333</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>0.56458333333333333</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>0.50694444444444442</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>1.6</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="1">
         <v>404804</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="1">
         <v>7616198</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="1">
         <v>833</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="1">
         <v>979</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>44716</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>0.57291666666666663</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>0.51388888888888884</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>6.7</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>44716</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>0.61875000000000002</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>0.69930555555555551</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>0.64583333333333337</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>10.4</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="1">
         <v>420492</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="1">
         <v>7622843</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="1">
         <v>584</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="1">
         <v>1014</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>44720</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>0.75486111111111109</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>0.63194444444444442</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>3.4</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="1">
         <v>398143</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="1">
         <v>7607174</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="1">
         <v>876</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="1">
         <v>143</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>44720</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>0.75624999999999998</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="1">
         <v>6</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="1">
         <v>398150</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="1">
         <v>7607167</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="1">
         <v>876</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="1">
         <v>165</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>44721</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>0.72430555555555554</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>0.64027777777777772</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="1">
         <v>418127</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="1">
         <v>7623083</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="1">
         <v>658</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="1">
         <v>166</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>44721</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>0.6479166666666667</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="1">
         <v>10.3</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="1">
         <v>418146</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="1">
         <v>7623061</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="1">
         <v>656</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="1">
         <v>167</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>44722</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>0.62152777777777779</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="1">
         <v>8.1</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="1">
         <v>426409</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="1">
         <v>7669112</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="1">
         <v>341</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="1">
         <v>186</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>44722</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>0.62569444444444444</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <v>7.8</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="1">
         <v>426402</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="1">
         <v>7669065</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="1">
         <v>343</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="1">
         <v>1088</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>44723</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>0.64722222222222225</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>0.54513888888888884</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="1">
         <v>2.7</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="1">
         <v>426710</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="1">
         <v>7665369</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="1">
         <v>327</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="1">
         <v>206</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>44725</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>0.46527777777777779</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>0.60416666666666663</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <v>0.48680555555555555</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="1">
         <v>8.1</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="1">
         <v>420598</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="1">
         <v>7622426</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="1">
         <v>576</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="1">
         <v>1119</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>44725</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>0.63194444444444442</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <v>0.70138888888888884</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="3">
         <v>0.64861111111111114</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="1">
         <v>16.2</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="1">
         <v>419866</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="1">
         <v>7622732</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="1">
         <v>589</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="1">
         <v>1161</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="P16" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>44725</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="3">
         <v>0.6645833333333333</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="1">
         <v>13.6</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="1">
         <v>419864</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="1">
         <v>7622763</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="1">
         <v>589</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="1">
         <v>1174</v>
       </c>
-      <c r="P17" s="10" t="s">
+      <c r="P17" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>44726</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="3">
         <v>0.64583333333333337</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="3">
         <v>0.49652777777777779</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="1">
         <v>7.4</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="1">
         <v>427391</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="1">
         <v>7663214</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="1">
         <v>351</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="1">
         <v>1186</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>44726</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <v>0.58750000000000002</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="1">
         <v>8.3000000000000007</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="1">
         <v>427349</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="1">
         <v>7663138</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="1">
         <v>352</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="1">
         <v>1207</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>44727</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="3">
         <v>0.54374999999999996</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="1">
         <v>13.2</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="1">
         <v>425816</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="1">
         <v>7646282</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="1">
         <v>395</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="1">
         <v>1220</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>44728</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>0.4201388888888889</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <v>0.47222222222222221</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="3">
         <v>0.42708333333333331</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="1">
         <v>8.9</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="1">
         <v>412860</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="1">
         <v>7619341</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="1">
         <v>779</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="1">
         <v>291</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>44729</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="3">
         <v>0.43402777777777779</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="1">
         <v>412916</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="1">
         <v>7619363</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="1">
         <v>777</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="1">
         <v>292</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="4"/>
+      <c r="B23" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44711</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0.63055555555555554</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0.77708333333333324</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0.6875</v>
+      </c>
+      <c r="G23">
+        <v>8.6</v>
+      </c>
+      <c r="H23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23">
+        <v>412794</v>
+      </c>
+      <c r="K23">
+        <v>7620390</v>
+      </c>
+      <c r="L23">
+        <v>786</v>
+      </c>
+      <c r="M23">
+        <v>568</v>
+      </c>
+      <c r="N23" t="s">
+        <v>69</v>
+      </c>
+      <c r="O23" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="24" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="4"/>
+      <c r="B24" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44712</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="G24">
+        <v>0.3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24">
+        <v>427350</v>
+      </c>
+      <c r="K24">
+        <v>7675548</v>
+      </c>
+      <c r="L24">
+        <v>303</v>
+      </c>
+      <c r="M24">
+        <v>857</v>
+      </c>
+      <c r="N24" t="s">
+        <v>71</v>
+      </c>
+      <c r="O24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="25" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="4"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="4"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="4"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="4"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="4"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="4"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="4"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="4"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="4"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="4"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="4"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="4"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="4"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="4"/>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="4"/>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="4"/>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="4"/>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="4"/>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="4"/>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="4"/>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="4"/>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="4"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="4"/>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C48" s="4"/>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C49" s="4"/>
+      <c r="C49" s="2"/>
     </row>
     <row r="50" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C50" s="4"/>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C51" s="4"/>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C52" s="4"/>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C53" s="4"/>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C54" s="4"/>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C55" s="4"/>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C56" s="4"/>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C57" s="4"/>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C58" s="4"/>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C59" s="4"/>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C60" s="4"/>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C61" s="4"/>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C62" s="4"/>
+      <c r="C62" s="2"/>
     </row>
     <row r="63" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C63" s="4"/>
+      <c r="C63" s="2"/>
     </row>
     <row r="64" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C64" s="4"/>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C65" s="4"/>
+      <c r="C65" s="2"/>
     </row>
     <row r="66" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C66" s="4"/>
+      <c r="C66" s="2"/>
     </row>
     <row r="67" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C67" s="4"/>
+      <c r="C67" s="2"/>
     </row>
     <row r="68" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C68" s="4"/>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C69" s="4"/>
+      <c r="C69" s="2"/>
     </row>
     <row r="70" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C70" s="4"/>
+      <c r="C70" s="2"/>
     </row>
     <row r="71" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C71" s="4"/>
+      <c r="C71" s="2"/>
     </row>
     <row r="72" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C72" s="4"/>
+      <c r="C72" s="2"/>
     </row>
     <row r="73" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C73" s="4"/>
+      <c r="C73" s="2"/>
     </row>
     <row r="74" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C74" s="4"/>
+      <c r="C74" s="2"/>
     </row>
     <row r="75" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C75" s="4"/>
+      <c r="C75" s="2"/>
     </row>
     <row r="76" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C76" s="4"/>
+      <c r="C76" s="2"/>
     </row>
     <row r="77" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C77" s="4"/>
+      <c r="C77" s="2"/>
     </row>
     <row r="78" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C78" s="4"/>
+      <c r="C78" s="2"/>
     </row>
     <row r="79" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C79" s="4"/>
+      <c r="C79" s="2"/>
     </row>
     <row r="80" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C80" s="4"/>
+      <c r="C80" s="2"/>
     </row>
     <row r="81" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C81" s="4"/>
+      <c r="C81" s="2"/>
     </row>
     <row r="82" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C82" s="4"/>
+      <c r="C82" s="2"/>
     </row>
     <row r="83" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C83" s="4"/>
+      <c r="C83" s="2"/>
     </row>
     <row r="84" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C84" s="4"/>
+      <c r="C84" s="2"/>
     </row>
     <row r="85" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C85" s="4"/>
+      <c r="C85" s="2"/>
     </row>
     <row r="86" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C86" s="4"/>
+      <c r="C86" s="2"/>
     </row>
     <row r="87" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C87" s="4"/>
+      <c r="C87" s="2"/>
     </row>
     <row r="88" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C88" s="4"/>
+      <c r="C88" s="2"/>
     </row>
     <row r="89" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C89" s="4"/>
+      <c r="C89" s="2"/>
     </row>
     <row r="90" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C90" s="4"/>
+      <c r="C90" s="2"/>
     </row>
     <row r="91" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C91" s="4"/>
+      <c r="C91" s="2"/>
     </row>
     <row r="92" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C92" s="4"/>
+      <c r="C92" s="2"/>
     </row>
     <row r="93" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C93" s="4"/>
+      <c r="C93" s="2"/>
     </row>
     <row r="94" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C94" s="4"/>
+      <c r="C94" s="2"/>
     </row>
     <row r="95" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C95" s="4"/>
+      <c r="C95" s="2"/>
     </row>
     <row r="96" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C96" s="4"/>
+      <c r="C96" s="2"/>
     </row>
     <row r="97" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C97" s="4"/>
+      <c r="C97" s="2"/>
     </row>
     <row r="98" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C98" s="4"/>
+      <c r="C98" s="2"/>
     </row>
     <row r="99" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C99" s="4"/>
+      <c r="C99" s="2"/>
     </row>
     <row r="100" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C100" s="4"/>
+      <c r="C100" s="2"/>
     </row>
     <row r="101" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C101" s="4"/>
+      <c r="C101" s="2"/>
     </row>
     <row r="102" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C102" s="4"/>
+      <c r="C102" s="2"/>
     </row>
     <row r="103" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C103" s="4"/>
+      <c r="C103" s="2"/>
     </row>
     <row r="104" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C104" s="4"/>
+      <c r="C104" s="2"/>
     </row>
     <row r="105" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C105" s="4"/>
+      <c r="C105" s="2"/>
     </row>
     <row r="106" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C106" s="4"/>
+      <c r="C106" s="2"/>
     </row>
     <row r="107" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C107" s="4"/>
+      <c r="C107" s="2"/>
     </row>
     <row r="108" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C108" s="4"/>
+      <c r="C108" s="2"/>
     </row>
     <row r="109" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C109" s="4"/>
+      <c r="C109" s="2"/>
     </row>
     <row r="110" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C110" s="4"/>
+      <c r="C110" s="2"/>
     </row>
     <row r="111" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C111" s="4"/>
+      <c r="C111" s="2"/>
     </row>
     <row r="112" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C112" s="4"/>
+      <c r="C112" s="2"/>
     </row>
     <row r="113" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C113" s="4"/>
+      <c r="C113" s="2"/>
     </row>
     <row r="114" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C114" s="4"/>
+      <c r="C114" s="2"/>
     </row>
     <row r="115" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C115" s="4"/>
+      <c r="C115" s="2"/>
     </row>
     <row r="116" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C116" s="4"/>
+      <c r="C116" s="2"/>
     </row>
     <row r="117" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C117" s="4"/>
+      <c r="C117" s="2"/>
     </row>
     <row r="118" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C118" s="4"/>
+      <c r="C118" s="2"/>
     </row>
     <row r="119" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C119" s="4"/>
+      <c r="C119" s="2"/>
     </row>
     <row r="120" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C120" s="4"/>
+      <c r="C120" s="2"/>
     </row>
     <row r="121" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C121" s="4"/>
+      <c r="C121" s="2"/>
     </row>
     <row r="122" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C122" s="4"/>
+      <c r="C122" s="2"/>
     </row>
     <row r="123" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C123" s="4"/>
+      <c r="C123" s="2"/>
     </row>
     <row r="124" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C124" s="4"/>
+      <c r="C124" s="2"/>
     </row>
     <row r="125" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C125" s="4"/>
+      <c r="C125" s="2"/>
     </row>
     <row r="126" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C126" s="4"/>
+      <c r="C126" s="2"/>
     </row>
     <row r="127" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C127" s="4"/>
+      <c r="C127" s="2"/>
     </row>
     <row r="128" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C128" s="4"/>
+      <c r="C128" s="2"/>
     </row>
     <row r="129" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C129" s="4"/>
+      <c r="C129" s="2"/>
     </row>
     <row r="130" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C130" s="4"/>
+      <c r="C130" s="2"/>
     </row>
     <row r="131" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C131" s="4"/>
+      <c r="C131" s="2"/>
     </row>
     <row r="132" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C132" s="4"/>
+      <c r="C132" s="2"/>
     </row>
     <row r="133" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C133" s="4"/>
+      <c r="C133" s="2"/>
     </row>
     <row r="134" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C134" s="4"/>
+      <c r="C134" s="2"/>
     </row>
     <row r="135" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C135" s="4"/>
+      <c r="C135" s="2"/>
     </row>
     <row r="136" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C136" s="4"/>
+      <c r="C136" s="2"/>
     </row>
     <row r="137" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C137" s="4"/>
+      <c r="C137" s="2"/>
     </row>
     <row r="138" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C138" s="4"/>
+      <c r="C138" s="2"/>
     </row>
     <row r="139" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C139" s="4"/>
+      <c r="C139" s="2"/>
     </row>
     <row r="140" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C140" s="4"/>
+      <c r="C140" s="2"/>
     </row>
     <row r="141" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C141" s="4"/>
+      <c r="C141" s="2"/>
     </row>
     <row r="142" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C142" s="4"/>
+      <c r="C142" s="2"/>
     </row>
     <row r="143" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C143" s="4"/>
+      <c r="C143" s="2"/>
     </row>
     <row r="144" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C144" s="4"/>
+      <c r="C144" s="2"/>
     </row>
     <row r="145" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C145" s="4"/>
+      <c r="C145" s="2"/>
     </row>
     <row r="146" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C146" s="4"/>
+      <c r="C146" s="2"/>
     </row>
     <row r="147" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C147" s="4"/>
+      <c r="C147" s="2"/>
     </row>
     <row r="148" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C148" s="4"/>
+      <c r="C148" s="2"/>
     </row>
     <row r="149" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C149" s="4"/>
+      <c r="C149" s="2"/>
     </row>
     <row r="150" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C150" s="4"/>
+      <c r="C150" s="2"/>
     </row>
     <row r="151" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C151" s="4"/>
+      <c r="C151" s="2"/>
     </row>
     <row r="152" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C152" s="4"/>
+      <c r="C152" s="2"/>
     </row>
     <row r="153" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C153" s="4"/>
+      <c r="C153" s="2"/>
     </row>
     <row r="154" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C154" s="4"/>
+      <c r="C154" s="2"/>
     </row>
     <row r="155" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C155" s="4"/>
+      <c r="C155" s="2"/>
     </row>
     <row r="156" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C156" s="4"/>
+      <c r="C156" s="2"/>
     </row>
     <row r="157" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C157" s="4"/>
+      <c r="C157" s="2"/>
     </row>
     <row r="158" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C158" s="4"/>
+      <c r="C158" s="2"/>
     </row>
     <row r="159" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C159" s="4"/>
+      <c r="C159" s="2"/>
     </row>
     <row r="160" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C160" s="4"/>
+      <c r="C160" s="2"/>
     </row>
     <row r="161" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C161" s="4"/>
+      <c r="C161" s="2"/>
     </row>
     <row r="162" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C162" s="4"/>
+      <c r="C162" s="2"/>
     </row>
     <row r="163" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C163" s="4"/>
+      <c r="C163" s="2"/>
     </row>
     <row r="164" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C164" s="4"/>
+      <c r="C164" s="2"/>
     </row>
     <row r="165" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C165" s="4"/>
+      <c r="C165" s="2"/>
     </row>
     <row r="166" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C166" s="4"/>
+      <c r="C166" s="2"/>
     </row>
     <row r="167" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C167" s="4"/>
+      <c r="C167" s="2"/>
     </row>
     <row r="168" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C168" s="4"/>
+      <c r="C168" s="2"/>
     </row>
     <row r="169" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C169" s="4"/>
+      <c r="C169" s="2"/>
     </row>
     <row r="170" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C170" s="4"/>
+      <c r="C170" s="2"/>
     </row>
     <row r="171" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C171" s="4"/>
+      <c r="C171" s="2"/>
     </row>
     <row r="172" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C172" s="4"/>
+      <c r="C172" s="2"/>
     </row>
     <row r="173" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C173" s="4"/>
+      <c r="C173" s="2"/>
     </row>
     <row r="174" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C174" s="4"/>
+      <c r="C174" s="2"/>
     </row>
     <row r="175" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C175" s="4"/>
+      <c r="C175" s="2"/>
     </row>
     <row r="176" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C176" s="4"/>
+      <c r="C176" s="2"/>
     </row>
     <row r="177" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C177" s="4"/>
+      <c r="C177" s="2"/>
     </row>
     <row r="178" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C178" s="4"/>
+      <c r="C178" s="2"/>
     </row>
     <row r="179" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C179" s="4"/>
+      <c r="C179" s="2"/>
     </row>
     <row r="180" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C180" s="4"/>
+      <c r="C180" s="2"/>
     </row>
     <row r="181" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C181" s="4"/>
+      <c r="C181" s="2"/>
     </row>
     <row r="182" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C182" s="4"/>
+      <c r="C182" s="2"/>
     </row>
     <row r="183" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C183" s="4"/>
+      <c r="C183" s="2"/>
     </row>
     <row r="184" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C184" s="4"/>
+      <c r="C184" s="2"/>
     </row>
     <row r="185" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C185" s="4"/>
+      <c r="C185" s="2"/>
     </row>
     <row r="186" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C186" s="4"/>
+      <c r="C186" s="2"/>
     </row>
     <row r="187" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C187" s="4"/>
+      <c r="C187" s="2"/>
     </row>
     <row r="188" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C188" s="4"/>
+      <c r="C188" s="2"/>
     </row>
     <row r="189" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C189" s="4"/>
+      <c r="C189" s="2"/>
     </row>
     <row r="190" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C190" s="4"/>
+      <c r="C190" s="2"/>
     </row>
     <row r="191" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C191" s="4"/>
+      <c r="C191" s="2"/>
     </row>
     <row r="192" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C192" s="4"/>
+      <c r="C192" s="2"/>
     </row>
     <row r="193" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C193" s="4"/>
+      <c r="C193" s="2"/>
     </row>
     <row r="194" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C194" s="4"/>
+      <c r="C194" s="2"/>
     </row>
     <row r="195" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C195" s="4"/>
+      <c r="C195" s="2"/>
     </row>
     <row r="196" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C196" s="4"/>
+      <c r="C196" s="2"/>
     </row>
     <row r="197" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C197" s="4"/>
+      <c r="C197" s="2"/>
     </row>
     <row r="198" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C198" s="4"/>
+      <c r="C198" s="2"/>
     </row>
     <row r="199" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C199" s="4"/>
+      <c r="C199" s="2"/>
     </row>
     <row r="200" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C200" s="4"/>
+      <c r="C200" s="2"/>
     </row>
     <row r="201" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C201" s="4"/>
+      <c r="C201" s="2"/>
     </row>
     <row r="202" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C202" s="4"/>
+      <c r="C202" s="2"/>
     </row>
     <row r="203" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C203" s="4"/>
+      <c r="C203" s="2"/>
     </row>
     <row r="204" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C204" s="4"/>
+      <c r="C204" s="2"/>
     </row>
     <row r="205" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C205" s="4"/>
+      <c r="C205" s="2"/>
     </row>
     <row r="206" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C206" s="4"/>
+      <c r="C206" s="2"/>
     </row>
     <row r="207" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C207" s="4"/>
+      <c r="C207" s="2"/>
     </row>
     <row r="208" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C208" s="4"/>
+      <c r="C208" s="2"/>
     </row>
     <row r="209" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C209" s="4"/>
+      <c r="C209" s="2"/>
     </row>
     <row r="210" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C210" s="4"/>
+      <c r="C210" s="2"/>
     </row>
     <row r="211" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C211" s="4"/>
+      <c r="C211" s="2"/>
     </row>
     <row r="212" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C212" s="4"/>
+      <c r="C212" s="2"/>
     </row>
     <row r="213" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C213" s="4"/>
+      <c r="C213" s="2"/>
     </row>
     <row r="214" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C214" s="4"/>
+      <c r="C214" s="2"/>
     </row>
     <row r="215" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C215" s="4"/>
+      <c r="C215" s="2"/>
     </row>
     <row r="216" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C216" s="4"/>
+      <c r="C216" s="2"/>
     </row>
     <row r="217" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C217" s="4"/>
+      <c r="C217" s="2"/>
     </row>
     <row r="218" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C218" s="4"/>
+      <c r="C218" s="2"/>
     </row>
     <row r="219" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C219" s="4"/>
+      <c r="C219" s="2"/>
     </row>
     <row r="220" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C220" s="4"/>
+      <c r="C220" s="2"/>
     </row>
     <row r="221" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C221" s="4"/>
+      <c r="C221" s="2"/>
     </row>
     <row r="222" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C222" s="4"/>
+      <c r="C222" s="2"/>
     </row>
     <row r="223" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C223" s="4"/>
+      <c r="C223" s="2"/>
     </row>
     <row r="224" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C224" s="4"/>
+      <c r="C224" s="2"/>
     </row>
     <row r="225" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C225" s="4"/>
+      <c r="C225" s="2"/>
     </row>
     <row r="226" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C226" s="4"/>
+      <c r="C226" s="2"/>
     </row>
     <row r="227" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C227" s="4"/>
+      <c r="C227" s="2"/>
     </row>
     <row r="228" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C228" s="4"/>
+      <c r="C228" s="2"/>
     </row>
     <row r="229" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C229" s="4"/>
+      <c r="C229" s="2"/>
     </row>
     <row r="230" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C230" s="4"/>
+      <c r="C230" s="2"/>
     </row>
     <row r="231" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C231" s="4"/>
+      <c r="C231" s="2"/>
     </row>
     <row r="232" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C232" s="4"/>
+      <c r="C232" s="2"/>
     </row>
     <row r="233" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C233" s="4"/>
+      <c r="C233" s="2"/>
     </row>
     <row r="234" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C234" s="4"/>
+      <c r="C234" s="2"/>
     </row>
     <row r="235" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C235" s="4"/>
+      <c r="C235" s="2"/>
     </row>
     <row r="236" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C236" s="4"/>
+      <c r="C236" s="2"/>
     </row>
     <row r="237" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C237" s="4"/>
+      <c r="C237" s="2"/>
     </row>
     <row r="238" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C238" s="4"/>
+      <c r="C238" s="2"/>
     </row>
     <row r="239" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C239" s="4"/>
+      <c r="C239" s="2"/>
     </row>
     <row r="240" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C240" s="4"/>
+      <c r="C240" s="2"/>
     </row>
     <row r="241" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C241" s="4"/>
+      <c r="C241" s="2"/>
     </row>
     <row r="242" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C242" s="4"/>
+      <c r="C242" s="2"/>
     </row>
     <row r="243" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C243" s="4"/>
+      <c r="C243" s="2"/>
     </row>
     <row r="244" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C244" s="4"/>
+      <c r="C244" s="2"/>
     </row>
     <row r="245" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C245" s="4"/>
+      <c r="C245" s="2"/>
     </row>
     <row r="246" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C246" s="4"/>
+      <c r="C246" s="2"/>
     </row>
     <row r="247" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C247" s="4"/>
+      <c r="C247" s="2"/>
     </row>
     <row r="248" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C248" s="4"/>
+      <c r="C248" s="2"/>
     </row>
     <row r="249" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C249" s="4"/>
+      <c r="C249" s="2"/>
     </row>
     <row r="250" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C250" s="4"/>
+      <c r="C250" s="2"/>
     </row>
     <row r="251" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C251" s="4"/>
+      <c r="C251" s="2"/>
     </row>
     <row r="252" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C252" s="4"/>
+      <c r="C252" s="2"/>
     </row>
     <row r="253" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C253" s="4"/>
+      <c r="C253" s="2"/>
     </row>
     <row r="254" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C254" s="4"/>
+      <c r="C254" s="2"/>
     </row>
     <row r="255" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C255" s="4"/>
+      <c r="C255" s="2"/>
     </row>
     <row r="256" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C256" s="4"/>
+      <c r="C256" s="2"/>
     </row>
     <row r="257" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C257" s="4"/>
+      <c r="C257" s="2"/>
     </row>
     <row r="258" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C258" s="4"/>
+      <c r="C258" s="2"/>
     </row>
     <row r="259" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C259" s="4"/>
+      <c r="C259" s="2"/>
     </row>
     <row r="260" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C260" s="4"/>
+      <c r="C260" s="2"/>
     </row>
     <row r="261" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C261" s="4"/>
+      <c r="C261" s="2"/>
     </row>
     <row r="262" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C262" s="4"/>
+      <c r="C262" s="2"/>
     </row>
     <row r="263" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C263" s="4"/>
+      <c r="C263" s="2"/>
     </row>
     <row r="264" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C264" s="4"/>
+      <c r="C264" s="2"/>
     </row>
     <row r="265" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C265" s="4"/>
+      <c r="C265" s="2"/>
     </row>
     <row r="266" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C266" s="4"/>
+      <c r="C266" s="2"/>
     </row>
     <row r="267" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C267" s="4"/>
+      <c r="C267" s="2"/>
     </row>
     <row r="268" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C268" s="4"/>
+      <c r="C268" s="2"/>
     </row>
     <row r="269" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C269" s="4"/>
+      <c r="C269" s="2"/>
     </row>
     <row r="270" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C270" s="4"/>
+      <c r="C270" s="2"/>
     </row>
     <row r="271" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C271" s="4"/>
+      <c r="C271" s="2"/>
     </row>
     <row r="272" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C272" s="4"/>
+      <c r="C272" s="2"/>
     </row>
     <row r="273" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C273" s="4"/>
+      <c r="C273" s="2"/>
     </row>
     <row r="274" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C274" s="4"/>
+      <c r="C274" s="2"/>
     </row>
     <row r="275" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C275" s="4"/>
+      <c r="C275" s="2"/>
     </row>
     <row r="276" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C276" s="4"/>
+      <c r="C276" s="2"/>
     </row>
     <row r="277" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C277" s="4"/>
+      <c r="C277" s="2"/>
     </row>
     <row r="278" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C278" s="4"/>
+      <c r="C278" s="2"/>
     </row>
     <row r="279" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C279" s="4"/>
+      <c r="C279" s="2"/>
     </row>
     <row r="280" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C280" s="4"/>
+      <c r="C280" s="2"/>
     </row>
     <row r="281" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C281" s="4"/>
+      <c r="C281" s="2"/>
     </row>
     <row r="282" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C282" s="4"/>
+      <c r="C282" s="2"/>
     </row>
     <row r="283" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C283" s="4"/>
+      <c r="C283" s="2"/>
     </row>
     <row r="284" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C284" s="4"/>
+      <c r="C284" s="2"/>
     </row>
     <row r="285" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C285" s="4"/>
+      <c r="C285" s="2"/>
     </row>
     <row r="286" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C286" s="4"/>
+      <c r="C286" s="2"/>
     </row>
     <row r="287" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C287" s="4"/>
+      <c r="C287" s="2"/>
     </row>
     <row r="288" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C288" s="4"/>
+      <c r="C288" s="2"/>
     </row>
     <row r="289" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C289" s="4"/>
+      <c r="C289" s="2"/>
     </row>
     <row r="290" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C290" s="4"/>
+      <c r="C290" s="2"/>
     </row>
     <row r="291" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C291" s="4"/>
+      <c r="C291" s="2"/>
     </row>
     <row r="292" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C292" s="4"/>
+      <c r="C292" s="2"/>
     </row>
     <row r="293" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C293" s="4"/>
+      <c r="C293" s="2"/>
     </row>
     <row r="294" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C294" s="4"/>
+      <c r="C294" s="2"/>
     </row>
     <row r="295" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C295" s="4"/>
+      <c r="C295" s="2"/>
     </row>
     <row r="296" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C296" s="4"/>
+      <c r="C296" s="2"/>
     </row>
     <row r="297" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C297" s="4"/>
+      <c r="C297" s="2"/>
     </row>
     <row r="298" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C298" s="4"/>
+      <c r="C298" s="2"/>
     </row>
     <row r="299" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C299" s="4"/>
+      <c r="C299" s="2"/>
     </row>
     <row r="300" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C300" s="4"/>
+      <c r="C300" s="2"/>
     </row>
     <row r="301" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C301" s="4"/>
+      <c r="C301" s="2"/>
     </row>
     <row r="302" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C302" s="4"/>
+      <c r="C302" s="2"/>
     </row>
     <row r="303" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C303" s="4"/>
+      <c r="C303" s="2"/>
     </row>
     <row r="304" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C304" s="4"/>
+      <c r="C304" s="2"/>
     </row>
     <row r="305" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C305" s="4"/>
+      <c r="C305" s="2"/>
     </row>
     <row r="306" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C306" s="4"/>
+      <c r="C306" s="2"/>
     </row>
     <row r="307" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C307" s="4"/>
+      <c r="C307" s="2"/>
     </row>
     <row r="308" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C308" s="4"/>
+      <c r="C308" s="2"/>
     </row>
     <row r="309" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C309" s="4"/>
+      <c r="C309" s="2"/>
     </row>
     <row r="310" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C310" s="4"/>
+      <c r="C310" s="2"/>
     </row>
     <row r="311" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C311" s="4"/>
+      <c r="C311" s="2"/>
     </row>
     <row r="312" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C312" s="4"/>
+      <c r="C312" s="2"/>
     </row>
     <row r="313" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C313" s="4"/>
+      <c r="C313" s="2"/>
     </row>
     <row r="314" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C314" s="4"/>
+      <c r="C314" s="2"/>
     </row>
     <row r="315" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C315" s="4"/>
+      <c r="C315" s="2"/>
     </row>
     <row r="316" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C316" s="4"/>
+      <c r="C316" s="2"/>
     </row>
     <row r="317" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C317" s="4"/>
+      <c r="C317" s="2"/>
     </row>
     <row r="318" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C318" s="4"/>
+      <c r="C318" s="2"/>
     </row>
     <row r="319" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C319" s="4"/>
+      <c r="C319" s="2"/>
     </row>
     <row r="320" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C320" s="4"/>
+      <c r="C320" s="2"/>
     </row>
     <row r="321" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C321" s="4"/>
+      <c r="C321" s="2"/>
     </row>
     <row r="322" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C322" s="4"/>
+      <c r="C322" s="2"/>
     </row>
     <row r="323" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C323" s="4"/>
+      <c r="C323" s="2"/>
     </row>
     <row r="324" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C324" s="4"/>
+      <c r="C324" s="2"/>
     </row>
     <row r="325" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C325" s="4"/>
+      <c r="C325" s="2"/>
     </row>
     <row r="326" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C326" s="4"/>
+      <c r="C326" s="2"/>
     </row>
     <row r="327" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C327" s="4"/>
+      <c r="C327" s="2"/>
     </row>
     <row r="328" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C328" s="4"/>
+      <c r="C328" s="2"/>
     </row>
     <row r="329" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C329" s="4"/>
+      <c r="C329" s="2"/>
     </row>
     <row r="330" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C330" s="4"/>
+      <c r="C330" s="2"/>
     </row>
     <row r="331" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C331" s="4"/>
+      <c r="C331" s="2"/>
     </row>
     <row r="332" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C332" s="4"/>
+      <c r="C332" s="2"/>
     </row>
     <row r="333" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C333" s="4"/>
+      <c r="C333" s="2"/>
     </row>
     <row r="334" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C334" s="4"/>
+      <c r="C334" s="2"/>
     </row>
     <row r="335" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C335" s="4"/>
+      <c r="C335" s="2"/>
     </row>
     <row r="336" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C336" s="4"/>
+      <c r="C336" s="2"/>
     </row>
     <row r="337" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C337" s="4"/>
+      <c r="C337" s="2"/>
     </row>
     <row r="338" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C338" s="4"/>
+      <c r="C338" s="2"/>
     </row>
     <row r="339" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C339" s="4"/>
+      <c r="C339" s="2"/>
     </row>
     <row r="340" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C340" s="4"/>
+      <c r="C340" s="2"/>
     </row>
     <row r="341" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C341" s="4"/>
+      <c r="C341" s="2"/>
     </row>
     <row r="342" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C342" s="4"/>
+      <c r="C342" s="2"/>
     </row>
     <row r="343" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C343" s="4"/>
+      <c r="C343" s="2"/>
     </row>
     <row r="344" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C344" s="4"/>
+      <c r="C344" s="2"/>
     </row>
     <row r="345" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C345" s="4"/>
+      <c r="C345" s="2"/>
     </row>
     <row r="346" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C346" s="4"/>
+      <c r="C346" s="2"/>
     </row>
     <row r="347" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C347" s="4"/>
+      <c r="C347" s="2"/>
     </row>
     <row r="348" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C348" s="4"/>
+      <c r="C348" s="2"/>
     </row>
     <row r="349" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C349" s="4"/>
+      <c r="C349" s="2"/>
     </row>
     <row r="350" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C350" s="4"/>
+      <c r="C350" s="2"/>
     </row>
     <row r="351" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C351" s="4"/>
+      <c r="C351" s="2"/>
     </row>
     <row r="352" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C352" s="4"/>
+      <c r="C352" s="2"/>
     </row>
     <row r="353" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C353" s="4"/>
+      <c r="C353" s="2"/>
     </row>
     <row r="354" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C354" s="4"/>
+      <c r="C354" s="2"/>
     </row>
     <row r="355" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C355" s="4"/>
+      <c r="C355" s="2"/>
     </row>
     <row r="356" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C356" s="4"/>
+      <c r="C356" s="2"/>
     </row>
     <row r="357" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C357" s="4"/>
+      <c r="C357" s="2"/>
     </row>
     <row r="358" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C358" s="4"/>
+      <c r="C358" s="2"/>
     </row>
     <row r="359" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C359" s="4"/>
+      <c r="C359" s="2"/>
     </row>
     <row r="360" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C360" s="4"/>
+      <c r="C360" s="2"/>
     </row>
     <row r="361" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C361" s="4"/>
+      <c r="C361" s="2"/>
     </row>
     <row r="362" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C362" s="4"/>
+      <c r="C362" s="2"/>
     </row>
     <row r="363" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C363" s="4"/>
+      <c r="C363" s="2"/>
     </row>
     <row r="364" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C364" s="4"/>
+      <c r="C364" s="2"/>
     </row>
     <row r="365" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C365" s="4"/>
+      <c r="C365" s="2"/>
     </row>
     <row r="366" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C366" s="4"/>
+      <c r="C366" s="2"/>
     </row>
     <row r="367" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C367" s="4"/>
+      <c r="C367" s="2"/>
     </row>
     <row r="368" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C368" s="4"/>
+      <c r="C368" s="2"/>
     </row>
     <row r="369" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C369" s="4"/>
+      <c r="C369" s="2"/>
     </row>
     <row r="370" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C370" s="4"/>
+      <c r="C370" s="2"/>
     </row>
     <row r="371" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C371" s="4"/>
+      <c r="C371" s="2"/>
     </row>
     <row r="372" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C372" s="4"/>
+      <c r="C372" s="2"/>
     </row>
     <row r="373" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C373" s="4"/>
+      <c r="C373" s="2"/>
     </row>
     <row r="374" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C374" s="4"/>
+      <c r="C374" s="2"/>
     </row>
     <row r="375" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C375" s="4"/>
+      <c r="C375" s="2"/>
     </row>
     <row r="376" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C376" s="4"/>
+      <c r="C376" s="2"/>
     </row>
     <row r="377" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C377" s="4"/>
+      <c r="C377" s="2"/>
     </row>
     <row r="378" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C378" s="4"/>
+      <c r="C378" s="2"/>
     </row>
     <row r="379" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C379" s="4"/>
+      <c r="C379" s="2"/>
     </row>
     <row r="380" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C380" s="4"/>
+      <c r="C380" s="2"/>
     </row>
     <row r="381" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C381" s="4"/>
+      <c r="C381" s="2"/>
     </row>
     <row r="382" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C382" s="4"/>
+      <c r="C382" s="2"/>
     </row>
     <row r="383" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C383" s="4"/>
+      <c r="C383" s="2"/>
     </row>
     <row r="384" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C384" s="4"/>
+      <c r="C384" s="2"/>
     </row>
     <row r="385" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C385" s="4"/>
+      <c r="C385" s="2"/>
     </row>
     <row r="386" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C386" s="4"/>
+      <c r="C386" s="2"/>
     </row>
     <row r="387" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C387" s="4"/>
+      <c r="C387" s="2"/>
     </row>
     <row r="388" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C388" s="4"/>
+      <c r="C388" s="2"/>
     </row>
     <row r="389" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C389" s="4"/>
+      <c r="C389" s="2"/>
     </row>
     <row r="390" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C390" s="4"/>
+      <c r="C390" s="2"/>
     </row>
     <row r="391" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C391" s="4"/>
+      <c r="C391" s="2"/>
     </row>
     <row r="392" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C392" s="4"/>
+      <c r="C392" s="2"/>
     </row>
     <row r="393" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C393" s="4"/>
+      <c r="C393" s="2"/>
     </row>
     <row r="394" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C394" s="4"/>
+      <c r="C394" s="2"/>
     </row>
     <row r="395" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C395" s="4"/>
+      <c r="C395" s="2"/>
     </row>
     <row r="396" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C396" s="4"/>
+      <c r="C396" s="2"/>
     </row>
     <row r="397" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C397" s="4"/>
+      <c r="C397" s="2"/>
     </row>
     <row r="398" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C398" s="4"/>
+      <c r="C398" s="2"/>
     </row>
     <row r="399" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C399" s="4"/>
+      <c r="C399" s="2"/>
     </row>
     <row r="400" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C400" s="4"/>
+      <c r="C400" s="2"/>
     </row>
     <row r="401" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C401" s="4"/>
+      <c r="C401" s="2"/>
     </row>
     <row r="402" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C402" s="4"/>
+      <c r="C402" s="2"/>
     </row>
     <row r="403" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C403" s="4"/>
+      <c r="C403" s="2"/>
     </row>
     <row r="404" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C404" s="4"/>
+      <c r="C404" s="2"/>
     </row>
     <row r="405" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C405" s="4"/>
+      <c r="C405" s="2"/>
     </row>
     <row r="406" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C406" s="4"/>
+      <c r="C406" s="2"/>
     </row>
     <row r="407" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C407" s="4"/>
+      <c r="C407" s="2"/>
     </row>
     <row r="408" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C408" s="4"/>
+      <c r="C408" s="2"/>
     </row>
     <row r="409" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C409" s="4"/>
+      <c r="C409" s="2"/>
     </row>
     <row r="410" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C410" s="4"/>
+      <c r="C410" s="2"/>
     </row>
     <row r="411" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C411" s="4"/>
+      <c r="C411" s="2"/>
     </row>
     <row r="412" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C412" s="4"/>
+      <c r="C412" s="2"/>
     </row>
     <row r="413" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C413" s="4"/>
+      <c r="C413" s="2"/>
     </row>
     <row r="414" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C414" s="4"/>
+      <c r="C414" s="2"/>
     </row>
     <row r="415" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C415" s="4"/>
+      <c r="C415" s="2"/>
     </row>
     <row r="416" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C416" s="4"/>
+      <c r="C416" s="2"/>
     </row>
     <row r="417" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C417" s="4"/>
+      <c r="C417" s="2"/>
     </row>
     <row r="418" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C418" s="4"/>
+      <c r="C418" s="2"/>
     </row>
     <row r="419" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C419" s="4"/>
+      <c r="C419" s="2"/>
     </row>
     <row r="420" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C420" s="4"/>
+      <c r="C420" s="2"/>
     </row>
     <row r="421" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C421" s="4"/>
+      <c r="C421" s="2"/>
     </row>
     <row r="422" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C422" s="4"/>
+      <c r="C422" s="2"/>
     </row>
     <row r="423" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C423" s="4"/>
+      <c r="C423" s="2"/>
     </row>
     <row r="424" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C424" s="4"/>
+      <c r="C424" s="2"/>
     </row>
     <row r="425" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C425" s="4"/>
+      <c r="C425" s="2"/>
     </row>
     <row r="426" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C426" s="4"/>
+      <c r="C426" s="2"/>
     </row>
     <row r="427" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C427" s="4"/>
+      <c r="C427" s="2"/>
     </row>
     <row r="428" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C428" s="4"/>
+      <c r="C428" s="2"/>
     </row>
     <row r="429" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C429" s="4"/>
+      <c r="C429" s="2"/>
     </row>
     <row r="430" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C430" s="4"/>
+      <c r="C430" s="2"/>
     </row>
     <row r="431" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C431" s="4"/>
+      <c r="C431" s="2"/>
     </row>
     <row r="432" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C432" s="4"/>
+      <c r="C432" s="2"/>
     </row>
     <row r="433" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C433" s="4"/>
+      <c r="C433" s="2"/>
     </row>
     <row r="434" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C434" s="4"/>
+      <c r="C434" s="2"/>
     </row>
     <row r="435" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C435" s="4"/>
+      <c r="C435" s="2"/>
     </row>
     <row r="436" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C436" s="4"/>
+      <c r="C436" s="2"/>
     </row>
     <row r="437" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C437" s="4"/>
+      <c r="C437" s="2"/>
     </row>
     <row r="438" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C438" s="4"/>
+      <c r="C438" s="2"/>
     </row>
     <row r="439" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C439" s="4"/>
+      <c r="C439" s="2"/>
     </row>
     <row r="440" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C440" s="4"/>
+      <c r="C440" s="2"/>
     </row>
     <row r="441" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C441" s="4"/>
+      <c r="C441" s="2"/>
     </row>
     <row r="442" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C442" s="4"/>
+      <c r="C442" s="2"/>
     </row>
     <row r="443" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C443" s="4"/>
+      <c r="C443" s="2"/>
     </row>
     <row r="444" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C444" s="4"/>
+      <c r="C444" s="2"/>
     </row>
     <row r="445" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C445" s="4"/>
+      <c r="C445" s="2"/>
     </row>
     <row r="446" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C446" s="4"/>
+      <c r="C446" s="2"/>
     </row>
     <row r="447" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C447" s="4"/>
+      <c r="C447" s="2"/>
     </row>
     <row r="448" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C448" s="4"/>
+      <c r="C448" s="2"/>
     </row>
     <row r="449" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C449" s="4"/>
+      <c r="C449" s="2"/>
     </row>
     <row r="450" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C450" s="4"/>
+      <c r="C450" s="2"/>
     </row>
     <row r="451" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C451" s="4"/>
+      <c r="C451" s="2"/>
     </row>
     <row r="452" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C452" s="4"/>
+      <c r="C452" s="2"/>
     </row>
     <row r="453" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C453" s="4"/>
+      <c r="C453" s="2"/>
     </row>
     <row r="454" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C454" s="4"/>
+      <c r="C454" s="2"/>
     </row>
     <row r="455" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C455" s="4"/>
+      <c r="C455" s="2"/>
     </row>
     <row r="456" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C456" s="4"/>
+      <c r="C456" s="2"/>
     </row>
     <row r="457" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C457" s="4"/>
+      <c r="C457" s="2"/>
     </row>
     <row r="458" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C458" s="4"/>
+      <c r="C458" s="2"/>
     </row>
     <row r="459" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C459" s="4"/>
+      <c r="C459" s="2"/>
     </row>
     <row r="460" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C460" s="4"/>
+      <c r="C460" s="2"/>
     </row>
     <row r="461" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C461" s="4"/>
+      <c r="C461" s="2"/>
     </row>
     <row r="462" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C462" s="4"/>
+      <c r="C462" s="2"/>
     </row>
     <row r="463" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C463" s="4"/>
+      <c r="C463" s="2"/>
     </row>
     <row r="464" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C464" s="4"/>
+      <c r="C464" s="2"/>
     </row>
     <row r="465" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C465" s="4"/>
+      <c r="C465" s="2"/>
     </row>
     <row r="466" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C466" s="4"/>
+      <c r="C466" s="2"/>
     </row>
     <row r="467" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C467" s="4"/>
+      <c r="C467" s="2"/>
     </row>
     <row r="468" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C468" s="4"/>
+      <c r="C468" s="2"/>
     </row>
     <row r="469" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C469" s="4"/>
+      <c r="C469" s="2"/>
     </row>
     <row r="470" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C470" s="4"/>
+      <c r="C470" s="2"/>
     </row>
     <row r="471" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C471" s="4"/>
+      <c r="C471" s="2"/>
     </row>
     <row r="472" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C472" s="4"/>
+      <c r="C472" s="2"/>
     </row>
     <row r="473" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C473" s="4"/>
+      <c r="C473" s="2"/>
     </row>
     <row r="474" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C474" s="4"/>
+      <c r="C474" s="2"/>
     </row>
     <row r="475" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C475" s="4"/>
+      <c r="C475" s="2"/>
     </row>
     <row r="476" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C476" s="4"/>
+      <c r="C476" s="2"/>
     </row>
     <row r="477" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C477" s="4"/>
+      <c r="C477" s="2"/>
     </row>
     <row r="478" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C478" s="4"/>
+      <c r="C478" s="2"/>
     </row>
     <row r="479" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C479" s="4"/>
+      <c r="C479" s="2"/>
     </row>
     <row r="480" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C480" s="4"/>
+      <c r="C480" s="2"/>
     </row>
     <row r="481" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C481" s="4"/>
+      <c r="C481" s="2"/>
     </row>
     <row r="482" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C482" s="4"/>
+      <c r="C482" s="2"/>
     </row>
     <row r="483" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C483" s="4"/>
+      <c r="C483" s="2"/>
     </row>
     <row r="484" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C484" s="4"/>
+      <c r="C484" s="2"/>
     </row>
     <row r="485" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C485" s="4"/>
+      <c r="C485" s="2"/>
     </row>
     <row r="486" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C486" s="4"/>
+      <c r="C486" s="2"/>
     </row>
     <row r="487" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C487" s="4"/>
+      <c r="C487" s="2"/>
     </row>
     <row r="488" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C488" s="4"/>
+      <c r="C488" s="2"/>
     </row>
     <row r="489" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C489" s="4"/>
+      <c r="C489" s="2"/>
     </row>
     <row r="490" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C490" s="4"/>
+      <c r="C490" s="2"/>
     </row>
     <row r="491" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C491" s="4"/>
+      <c r="C491" s="2"/>
     </row>
     <row r="492" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C492" s="4"/>
+      <c r="C492" s="2"/>
     </row>
     <row r="493" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C493" s="4"/>
+      <c r="C493" s="2"/>
     </row>
     <row r="494" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C494" s="4"/>
+      <c r="C494" s="2"/>
     </row>
     <row r="495" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C495" s="4"/>
+      <c r="C495" s="2"/>
     </row>
     <row r="496" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C496" s="4"/>
+      <c r="C496" s="2"/>
     </row>
     <row r="497" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C497" s="4"/>
+      <c r="C497" s="2"/>
     </row>
     <row r="498" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C498" s="4"/>
+      <c r="C498" s="2"/>
     </row>
     <row r="499" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C499" s="4"/>
+      <c r="C499" s="2"/>
     </row>
     <row r="500" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C500" s="4"/>
+      <c r="C500" s="2"/>
     </row>
     <row r="501" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C501" s="4"/>
+      <c r="C501" s="2"/>
     </row>
     <row r="502" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C502" s="4"/>
+      <c r="C502" s="2"/>
     </row>
     <row r="503" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C503" s="4"/>
+      <c r="C503" s="2"/>
     </row>
     <row r="504" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C504" s="4"/>
+      <c r="C504" s="2"/>
     </row>
     <row r="505" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C505" s="4"/>
+      <c r="C505" s="2"/>
     </row>
     <row r="506" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C506" s="4"/>
+      <c r="C506" s="2"/>
     </row>
     <row r="507" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C507" s="4"/>
+      <c r="C507" s="2"/>
     </row>
     <row r="508" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C508" s="4"/>
+      <c r="C508" s="2"/>
     </row>
     <row r="509" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C509" s="4"/>
+      <c r="C509" s="2"/>
     </row>
     <row r="510" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C510" s="4"/>
+      <c r="C510" s="2"/>
     </row>
     <row r="511" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C511" s="4"/>
+      <c r="C511" s="2"/>
     </row>
     <row r="512" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C512" s="4"/>
+      <c r="C512" s="2"/>
     </row>
     <row r="513" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C513" s="4"/>
+      <c r="C513" s="2"/>
     </row>
     <row r="514" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C514" s="4"/>
+      <c r="C514" s="2"/>
     </row>
     <row r="515" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C515" s="4"/>
+      <c r="C515" s="2"/>
     </row>
     <row r="516" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C516" s="4"/>
+      <c r="C516" s="2"/>
     </row>
     <row r="517" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C517" s="4"/>
+      <c r="C517" s="2"/>
     </row>
     <row r="518" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C518" s="4"/>
+      <c r="C518" s="2"/>
     </row>
     <row r="519" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C519" s="4"/>
+      <c r="C519" s="2"/>
     </row>
     <row r="520" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C520" s="4"/>
+      <c r="C520" s="2"/>
     </row>
     <row r="521" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C521" s="4"/>
+      <c r="C521" s="2"/>
     </row>
     <row r="522" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C522" s="4"/>
+      <c r="C522" s="2"/>
     </row>
     <row r="523" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C523" s="4"/>
+      <c r="C523" s="2"/>
     </row>
     <row r="524" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C524" s="4"/>
+      <c r="C524" s="2"/>
     </row>
     <row r="525" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C525" s="4"/>
+      <c r="C525" s="2"/>
     </row>
     <row r="526" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C526" s="4"/>
+      <c r="C526" s="2"/>
     </row>
     <row r="527" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C527" s="4"/>
+      <c r="C527" s="2"/>
     </row>
     <row r="528" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C528" s="4"/>
+      <c r="C528" s="2"/>
     </row>
     <row r="529" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C529" s="4"/>
+      <c r="C529" s="2"/>
     </row>
     <row r="530" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C530" s="4"/>
+      <c r="C530" s="2"/>
     </row>
     <row r="531" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C531" s="4"/>
+      <c r="C531" s="2"/>
     </row>
     <row r="532" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C532" s="4"/>
+      <c r="C532" s="2"/>
     </row>
     <row r="533" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C533" s="4"/>
+      <c r="C533" s="2"/>
     </row>
     <row r="534" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C534" s="4"/>
+      <c r="C534" s="2"/>
     </row>
     <row r="535" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C535" s="4"/>
+      <c r="C535" s="2"/>
     </row>
     <row r="536" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C536" s="4"/>
+      <c r="C536" s="2"/>
     </row>
     <row r="537" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C537" s="4"/>
+      <c r="C537" s="2"/>
     </row>
     <row r="538" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C538" s="4"/>
+      <c r="C538" s="2"/>
     </row>
     <row r="539" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C539" s="4"/>
+      <c r="C539" s="2"/>
     </row>
     <row r="540" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C540" s="4"/>
+      <c r="C540" s="2"/>
     </row>
     <row r="541" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C541" s="4"/>
+      <c r="C541" s="2"/>
     </row>
     <row r="542" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C542" s="4"/>
+      <c r="C542" s="2"/>
     </row>
     <row r="543" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C543" s="4"/>
+      <c r="C543" s="2"/>
     </row>
     <row r="544" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C544" s="4"/>
+      <c r="C544" s="2"/>
     </row>
     <row r="545" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C545" s="4"/>
+      <c r="C545" s="2"/>
     </row>
     <row r="546" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C546" s="4"/>
+      <c r="C546" s="2"/>
     </row>
     <row r="547" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C547" s="4"/>
+      <c r="C547" s="2"/>
     </row>
     <row r="548" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C548" s="4"/>
+      <c r="C548" s="2"/>
     </row>
     <row r="549" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C549" s="4"/>
+      <c r="C549" s="2"/>
     </row>
     <row r="550" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C550" s="4"/>
+      <c r="C550" s="2"/>
     </row>
     <row r="551" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C551" s="4"/>
+      <c r="C551" s="2"/>
     </row>
     <row r="552" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C552" s="4"/>
+      <c r="C552" s="2"/>
     </row>
     <row r="553" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C553" s="4"/>
+      <c r="C553" s="2"/>
     </row>
     <row r="554" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C554" s="4"/>
+      <c r="C554" s="2"/>
     </row>
     <row r="555" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C555" s="4"/>
+      <c r="C555" s="2"/>
     </row>
     <row r="556" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C556" s="4"/>
+      <c r="C556" s="2"/>
     </row>
     <row r="557" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C557" s="4"/>
+      <c r="C557" s="2"/>
     </row>
     <row r="558" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C558" s="4"/>
+      <c r="C558" s="2"/>
     </row>
     <row r="559" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C559" s="4"/>
+      <c r="C559" s="2"/>
     </row>
     <row r="560" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C560" s="4"/>
+      <c r="C560" s="2"/>
     </row>
     <row r="561" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C561" s="4"/>
+      <c r="C561" s="2"/>
     </row>
     <row r="562" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C562" s="4"/>
+      <c r="C562" s="2"/>
     </row>
     <row r="563" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C563" s="4"/>
+      <c r="C563" s="2"/>
     </row>
     <row r="564" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C564" s="4"/>
+      <c r="C564" s="2"/>
     </row>
     <row r="565" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C565" s="4"/>
+      <c r="C565" s="2"/>
     </row>
     <row r="566" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C566" s="4"/>
+      <c r="C566" s="2"/>
     </row>
     <row r="567" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C567" s="4"/>
+      <c r="C567" s="2"/>
     </row>
     <row r="568" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C568" s="4"/>
+      <c r="C568" s="2"/>
     </row>
     <row r="569" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C569" s="4"/>
+      <c r="C569" s="2"/>
     </row>
     <row r="570" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C570" s="4"/>
+      <c r="C570" s="2"/>
     </row>
     <row r="571" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C571" s="4"/>
+      <c r="C571" s="2"/>
     </row>
     <row r="572" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C572" s="4"/>
+      <c r="C572" s="2"/>
     </row>
     <row r="573" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C573" s="4"/>
+      <c r="C573" s="2"/>
     </row>
     <row r="574" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C574" s="4"/>
+      <c r="C574" s="2"/>
     </row>
     <row r="575" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C575" s="4"/>
+      <c r="C575" s="2"/>
     </row>
     <row r="576" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C576" s="4"/>
+      <c r="C576" s="2"/>
     </row>
     <row r="577" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C577" s="4"/>
+      <c r="C577" s="2"/>
     </row>
     <row r="578" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C578" s="4"/>
+      <c r="C578" s="2"/>
     </row>
     <row r="579" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C579" s="4"/>
+      <c r="C579" s="2"/>
     </row>
     <row r="580" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C580" s="4"/>
+      <c r="C580" s="2"/>
     </row>
     <row r="581" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C581" s="4"/>
+      <c r="C581" s="2"/>
     </row>
     <row r="582" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C582" s="4"/>
+      <c r="C582" s="2"/>
     </row>
     <row r="583" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C583" s="4"/>
+      <c r="C583" s="2"/>
     </row>
     <row r="584" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C584" s="4"/>
+      <c r="C584" s="2"/>
     </row>
     <row r="585" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C585" s="4"/>
+      <c r="C585" s="2"/>
     </row>
     <row r="586" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C586" s="4"/>
+      <c r="C586" s="2"/>
     </row>
     <row r="587" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C587" s="4"/>
+      <c r="C587" s="2"/>
     </row>
     <row r="588" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C588" s="4"/>
+      <c r="C588" s="2"/>
     </row>
     <row r="589" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C589" s="4"/>
+      <c r="C589" s="2"/>
     </row>
     <row r="590" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C590" s="4"/>
+      <c r="C590" s="2"/>
     </row>
     <row r="591" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C591" s="4"/>
+      <c r="C591" s="2"/>
     </row>
     <row r="592" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C592" s="4"/>
+      <c r="C592" s="2"/>
     </row>
     <row r="593" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C593" s="4"/>
+      <c r="C593" s="2"/>
     </row>
     <row r="594" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C594" s="4"/>
+      <c r="C594" s="2"/>
     </row>
     <row r="595" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C595" s="4"/>
+      <c r="C595" s="2"/>
     </row>
     <row r="596" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C596" s="4"/>
+      <c r="C596" s="2"/>
     </row>
     <row r="597" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C597" s="4"/>
+      <c r="C597" s="2"/>
     </row>
     <row r="598" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C598" s="4"/>
+      <c r="C598" s="2"/>
     </row>
     <row r="599" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C599" s="4"/>
+      <c r="C599" s="2"/>
     </row>
     <row r="600" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C600" s="4"/>
+      <c r="C600" s="2"/>
     </row>
     <row r="601" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C601" s="4"/>
+      <c r="C601" s="2"/>
     </row>
     <row r="602" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C602" s="4"/>
+      <c r="C602" s="2"/>
     </row>
     <row r="603" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C603" s="4"/>
+      <c r="C603" s="2"/>
     </row>
     <row r="604" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C604" s="4"/>
+      <c r="C604" s="2"/>
     </row>
     <row r="605" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C605" s="4"/>
+      <c r="C605" s="2"/>
     </row>
     <row r="606" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C606" s="4"/>
+      <c r="C606" s="2"/>
     </row>
     <row r="607" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C607" s="4"/>
+      <c r="C607" s="2"/>
     </row>
     <row r="608" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C608" s="4"/>
+      <c r="C608" s="2"/>
     </row>
     <row r="609" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C609" s="4"/>
+      <c r="C609" s="2"/>
     </row>
     <row r="610" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C610" s="4"/>
+      <c r="C610" s="2"/>
     </row>
     <row r="611" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C611" s="4"/>
+      <c r="C611" s="2"/>
     </row>
     <row r="612" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C612" s="4"/>
+      <c r="C612" s="2"/>
     </row>
     <row r="613" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C613" s="4"/>
+      <c r="C613" s="2"/>
     </row>
     <row r="614" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C614" s="4"/>
+      <c r="C614" s="2"/>
     </row>
     <row r="615" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C615" s="4"/>
+      <c r="C615" s="2"/>
     </row>
     <row r="616" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C616" s="4"/>
+      <c r="C616" s="2"/>
     </row>
     <row r="617" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C617" s="4"/>
+      <c r="C617" s="2"/>
     </row>
     <row r="618" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C618" s="4"/>
+      <c r="C618" s="2"/>
     </row>
     <row r="619" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C619" s="4"/>
+      <c r="C619" s="2"/>
     </row>
     <row r="620" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C620" s="4"/>
+      <c r="C620" s="2"/>
     </row>
     <row r="621" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C621" s="4"/>
+      <c r="C621" s="2"/>
     </row>
     <row r="622" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C622" s="4"/>
+      <c r="C622" s="2"/>
     </row>
     <row r="623" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C623" s="4"/>
+      <c r="C623" s="2"/>
     </row>
     <row r="624" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C624" s="4"/>
+      <c r="C624" s="2"/>
     </row>
     <row r="625" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C625" s="4"/>
+      <c r="C625" s="2"/>
     </row>
     <row r="626" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C626" s="4"/>
+      <c r="C626" s="2"/>
     </row>
     <row r="627" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C627" s="4"/>
+      <c r="C627" s="2"/>
     </row>
     <row r="628" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C628" s="4"/>
+      <c r="C628" s="2"/>
     </row>
     <row r="629" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C629" s="4"/>
+      <c r="C629" s="2"/>
     </row>
     <row r="630" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C630" s="4"/>
+      <c r="C630" s="2"/>
     </row>
     <row r="631" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C631" s="4"/>
+      <c r="C631" s="2"/>
     </row>
     <row r="632" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C632" s="4"/>
+      <c r="C632" s="2"/>
     </row>
     <row r="633" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C633" s="4"/>
+      <c r="C633" s="2"/>
     </row>
     <row r="634" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C634" s="4"/>
+      <c r="C634" s="2"/>
     </row>
     <row r="635" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C635" s="4"/>
+      <c r="C635" s="2"/>
     </row>
     <row r="636" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C636" s="4"/>
+      <c r="C636" s="2"/>
     </row>
     <row r="637" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C637" s="4"/>
+      <c r="C637" s="2"/>
     </row>
     <row r="638" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C638" s="4"/>
+      <c r="C638" s="2"/>
     </row>
     <row r="639" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C639" s="4"/>
+      <c r="C639" s="2"/>
     </row>
     <row r="640" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C640" s="4"/>
+      <c r="C640" s="2"/>
     </row>
     <row r="641" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C641" s="4"/>
+      <c r="C641" s="2"/>
     </row>
     <row r="642" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C642" s="4"/>
+      <c r="C642" s="2"/>
     </row>
     <row r="643" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C643" s="4"/>
+      <c r="C643" s="2"/>
     </row>
     <row r="644" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C644" s="4"/>
+      <c r="C644" s="2"/>
     </row>
     <row r="645" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C645" s="4"/>
+      <c r="C645" s="2"/>
     </row>
     <row r="646" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C646" s="4"/>
+      <c r="C646" s="2"/>
     </row>
     <row r="647" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C647" s="4"/>
+      <c r="C647" s="2"/>
     </row>
     <row r="648" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C648" s="4"/>
+      <c r="C648" s="2"/>
     </row>
     <row r="649" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C649" s="4"/>
+      <c r="C649" s="2"/>
     </row>
     <row r="650" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C650" s="4"/>
+      <c r="C650" s="2"/>
     </row>
     <row r="651" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C651" s="4"/>
+      <c r="C651" s="2"/>
     </row>
     <row r="652" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C652" s="4"/>
+      <c r="C652" s="2"/>
     </row>
     <row r="653" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C653" s="4"/>
+      <c r="C653" s="2"/>
     </row>
     <row r="654" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C654" s="4"/>
+      <c r="C654" s="2"/>
     </row>
     <row r="655" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C655" s="4"/>
+      <c r="C655" s="2"/>
     </row>
     <row r="656" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C656" s="4"/>
+      <c r="C656" s="2"/>
     </row>
     <row r="657" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C657" s="4"/>
+      <c r="C657" s="2"/>
     </row>
     <row r="658" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C658" s="4"/>
+      <c r="C658" s="2"/>
     </row>
     <row r="659" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C659" s="4"/>
+      <c r="C659" s="2"/>
     </row>
     <row r="660" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C660" s="4"/>
+      <c r="C660" s="2"/>
     </row>
     <row r="661" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C661" s="4"/>
+      <c r="C661" s="2"/>
     </row>
     <row r="662" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C662" s="4"/>
+      <c r="C662" s="2"/>
     </row>
     <row r="663" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C663" s="4"/>
+      <c r="C663" s="2"/>
     </row>
     <row r="664" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C664" s="4"/>
+      <c r="C664" s="2"/>
     </row>
     <row r="665" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C665" s="4"/>
+      <c r="C665" s="2"/>
     </row>
     <row r="666" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C666" s="4"/>
+      <c r="C666" s="2"/>
     </row>
     <row r="667" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C667" s="4"/>
+      <c r="C667" s="2"/>
     </row>
     <row r="668" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C668" s="4"/>
+      <c r="C668" s="2"/>
     </row>
     <row r="669" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C669" s="4"/>
+      <c r="C669" s="2"/>
     </row>
     <row r="670" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C670" s="4"/>
+      <c r="C670" s="2"/>
     </row>
     <row r="671" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C671" s="4"/>
+      <c r="C671" s="2"/>
     </row>
     <row r="672" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C672" s="4"/>
+      <c r="C672" s="2"/>
     </row>
     <row r="673" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C673" s="4"/>
+      <c r="C673" s="2"/>
     </row>
     <row r="674" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C674" s="4"/>
+      <c r="C674" s="2"/>
     </row>
     <row r="675" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C675" s="4"/>
+      <c r="C675" s="2"/>
     </row>
     <row r="676" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C676" s="4"/>
+      <c r="C676" s="2"/>
     </row>
     <row r="677" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C677" s="4"/>
+      <c r="C677" s="2"/>
     </row>
     <row r="678" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C678" s="4"/>
+      <c r="C678" s="2"/>
     </row>
     <row r="679" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C679" s="4"/>
+      <c r="C679" s="2"/>
     </row>
     <row r="680" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C680" s="4"/>
+      <c r="C680" s="2"/>
     </row>
     <row r="681" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C681" s="4"/>
+      <c r="C681" s="2"/>
     </row>
     <row r="682" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C682" s="4"/>
+      <c r="C682" s="2"/>
     </row>
     <row r="683" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C683" s="4"/>
+      <c r="C683" s="2"/>
     </row>
     <row r="684" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C684" s="4"/>
+      <c r="C684" s="2"/>
     </row>
     <row r="685" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C685" s="4"/>
+      <c r="C685" s="2"/>
     </row>
     <row r="686" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C686" s="4"/>
+      <c r="C686" s="2"/>
     </row>
     <row r="687" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C687" s="4"/>
+      <c r="C687" s="2"/>
     </row>
     <row r="688" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C688" s="4"/>
+      <c r="C688" s="2"/>
     </row>
     <row r="689" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C689" s="4"/>
+      <c r="C689" s="2"/>
     </row>
     <row r="690" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C690" s="4"/>
+      <c r="C690" s="2"/>
     </row>
     <row r="691" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C691" s="4"/>
+      <c r="C691" s="2"/>
     </row>
     <row r="692" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C692" s="4"/>
+      <c r="C692" s="2"/>
     </row>
     <row r="693" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C693" s="4"/>
+      <c r="C693" s="2"/>
     </row>
     <row r="694" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C694" s="4"/>
+      <c r="C694" s="2"/>
     </row>
     <row r="695" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C695" s="4"/>
+      <c r="C695" s="2"/>
     </row>
     <row r="696" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C696" s="4"/>
+      <c r="C696" s="2"/>
     </row>
     <row r="697" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C697" s="4"/>
+      <c r="C697" s="2"/>
     </row>
     <row r="698" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C698" s="4"/>
+      <c r="C698" s="2"/>
     </row>
     <row r="699" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C699" s="4"/>
+      <c r="C699" s="2"/>
     </row>
     <row r="700" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C700" s="4"/>
+      <c r="C700" s="2"/>
     </row>
     <row r="701" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C701" s="4"/>
+      <c r="C701" s="2"/>
     </row>
     <row r="702" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C702" s="4"/>
+      <c r="C702" s="2"/>
     </row>
     <row r="703" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C703" s="4"/>
+      <c r="C703" s="2"/>
     </row>
     <row r="704" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C704" s="4"/>
+      <c r="C704" s="2"/>
     </row>
     <row r="705" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C705" s="4"/>
+      <c r="C705" s="2"/>
     </row>
     <row r="706" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C706" s="4"/>
+      <c r="C706" s="2"/>
     </row>
     <row r="707" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C707" s="4"/>
+      <c r="C707" s="2"/>
     </row>
     <row r="708" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C708" s="4"/>
+      <c r="C708" s="2"/>
     </row>
     <row r="709" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C709" s="4"/>
+      <c r="C709" s="2"/>
     </row>
     <row r="710" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C710" s="4"/>
+      <c r="C710" s="2"/>
     </row>
     <row r="711" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C711" s="4"/>
+      <c r="C711" s="2"/>
     </row>
     <row r="712" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C712" s="4"/>
+      <c r="C712" s="2"/>
     </row>
     <row r="713" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C713" s="4"/>
+      <c r="C713" s="2"/>
     </row>
     <row r="714" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C714" s="4"/>
+      <c r="C714" s="2"/>
     </row>
     <row r="715" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C715" s="4"/>
+      <c r="C715" s="2"/>
     </row>
     <row r="716" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C716" s="4"/>
+      <c r="C716" s="2"/>
     </row>
     <row r="717" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C717" s="4"/>
+      <c r="C717" s="2"/>
     </row>
     <row r="718" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C718" s="4"/>
+      <c r="C718" s="2"/>
     </row>
     <row r="719" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C719" s="4"/>
+      <c r="C719" s="2"/>
     </row>
     <row r="720" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C720" s="4"/>
+      <c r="C720" s="2"/>
     </row>
     <row r="721" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C721" s="4"/>
+      <c r="C721" s="2"/>
     </row>
     <row r="722" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C722" s="4"/>
+      <c r="C722" s="2"/>
     </row>
     <row r="723" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C723" s="4"/>
+      <c r="C723" s="2"/>
     </row>
     <row r="724" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C724" s="4"/>
+      <c r="C724" s="2"/>
     </row>
     <row r="725" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C725" s="4"/>
+      <c r="C725" s="2"/>
     </row>
     <row r="726" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C726" s="4"/>
+      <c r="C726" s="2"/>
     </row>
     <row r="727" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C727" s="4"/>
+      <c r="C727" s="2"/>
     </row>
     <row r="728" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C728" s="4"/>
+      <c r="C728" s="2"/>
     </row>
     <row r="729" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C729" s="4"/>
+      <c r="C729" s="2"/>
     </row>
     <row r="730" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C730" s="4"/>
+      <c r="C730" s="2"/>
     </row>
     <row r="731" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C731" s="4"/>
+      <c r="C731" s="2"/>
     </row>
     <row r="732" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C732" s="4"/>
+      <c r="C732" s="2"/>
     </row>
     <row r="733" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C733" s="4"/>
+      <c r="C733" s="2"/>
     </row>
     <row r="734" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C734" s="4"/>
+      <c r="C734" s="2"/>
     </row>
     <row r="735" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C735" s="4"/>
+      <c r="C735" s="2"/>
     </row>
     <row r="736" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C736" s="4"/>
+      <c r="C736" s="2"/>
     </row>
     <row r="737" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C737" s="4"/>
+      <c r="C737" s="2"/>
     </row>
     <row r="738" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C738" s="4"/>
+      <c r="C738" s="2"/>
     </row>
     <row r="739" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C739" s="4"/>
+      <c r="C739" s="2"/>
     </row>
     <row r="740" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C740" s="4"/>
+      <c r="C740" s="2"/>
     </row>
     <row r="741" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C741" s="4"/>
+      <c r="C741" s="2"/>
     </row>
     <row r="742" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C742" s="4"/>
+      <c r="C742" s="2"/>
     </row>
     <row r="743" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C743" s="4"/>
+      <c r="C743" s="2"/>
     </row>
     <row r="744" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C744" s="4"/>
+      <c r="C744" s="2"/>
     </row>
     <row r="745" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C745" s="4"/>
+      <c r="C745" s="2"/>
     </row>
     <row r="746" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C746" s="4"/>
+      <c r="C746" s="2"/>
     </row>
     <row r="747" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C747" s="4"/>
+      <c r="C747" s="2"/>
     </row>
     <row r="748" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C748" s="4"/>
+      <c r="C748" s="2"/>
     </row>
     <row r="749" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C749" s="4"/>
+      <c r="C749" s="2"/>
     </row>
     <row r="750" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C750" s="4"/>
+      <c r="C750" s="2"/>
     </row>
     <row r="751" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C751" s="4"/>
+      <c r="C751" s="2"/>
     </row>
     <row r="752" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C752" s="4"/>
+      <c r="C752" s="2"/>
     </row>
     <row r="753" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C753" s="4"/>
+      <c r="C753" s="2"/>
     </row>
     <row r="754" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C754" s="4"/>
+      <c r="C754" s="2"/>
     </row>
     <row r="755" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C755" s="4"/>
+      <c r="C755" s="2"/>
     </row>
     <row r="756" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C756" s="4"/>
+      <c r="C756" s="2"/>
     </row>
     <row r="757" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C757" s="4"/>
+      <c r="C757" s="2"/>
     </row>
     <row r="758" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C758" s="4"/>
+      <c r="C758" s="2"/>
     </row>
     <row r="759" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C759" s="4"/>
+      <c r="C759" s="2"/>
     </row>
     <row r="760" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C760" s="4"/>
+      <c r="C760" s="2"/>
     </row>
     <row r="761" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C761" s="4"/>
+      <c r="C761" s="2"/>
     </row>
     <row r="762" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C762" s="4"/>
+      <c r="C762" s="2"/>
     </row>
     <row r="763" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C763" s="4"/>
+      <c r="C763" s="2"/>
     </row>
     <row r="764" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C764" s="4"/>
+      <c r="C764" s="2"/>
     </row>
     <row r="765" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C765" s="4"/>
+      <c r="C765" s="2"/>
     </row>
     <row r="766" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C766" s="4"/>
+      <c r="C766" s="2"/>
     </row>
     <row r="767" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C767" s="4"/>
+      <c r="C767" s="2"/>
     </row>
     <row r="768" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C768" s="4"/>
+      <c r="C768" s="2"/>
     </row>
     <row r="769" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C769" s="4"/>
+      <c r="C769" s="2"/>
     </row>
     <row r="770" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C770" s="4"/>
+      <c r="C770" s="2"/>
     </row>
     <row r="771" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C771" s="4"/>
+      <c r="C771" s="2"/>
     </row>
     <row r="772" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C772" s="4"/>
+      <c r="C772" s="2"/>
     </row>
     <row r="773" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C773" s="4"/>
+      <c r="C773" s="2"/>
     </row>
     <row r="774" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C774" s="4"/>
+      <c r="C774" s="2"/>
     </row>
     <row r="775" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C775" s="4"/>
+      <c r="C775" s="2"/>
     </row>
     <row r="776" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C776" s="4"/>
+      <c r="C776" s="2"/>
     </row>
     <row r="777" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C777" s="4"/>
+      <c r="C777" s="2"/>
     </row>
     <row r="778" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C778" s="4"/>
+      <c r="C778" s="2"/>
     </row>
     <row r="779" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C779" s="4"/>
+      <c r="C779" s="2"/>
     </row>
     <row r="780" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C780" s="4"/>
+      <c r="C780" s="2"/>
     </row>
     <row r="781" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C781" s="4"/>
+      <c r="C781" s="2"/>
     </row>
     <row r="782" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C782" s="4"/>
+      <c r="C782" s="2"/>
     </row>
     <row r="783" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C783" s="4"/>
+      <c r="C783" s="2"/>
     </row>
     <row r="784" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C784" s="4"/>
+      <c r="C784" s="2"/>
     </row>
     <row r="785" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C785" s="4"/>
+      <c r="C785" s="2"/>
     </row>
     <row r="786" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C786" s="4"/>
+      <c r="C786" s="2"/>
     </row>
     <row r="787" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C787" s="4"/>
+      <c r="C787" s="2"/>
     </row>
     <row r="788" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C788" s="4"/>
+      <c r="C788" s="2"/>
     </row>
     <row r="789" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C789" s="4"/>
+      <c r="C789" s="2"/>
     </row>
     <row r="790" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C790" s="4"/>
+      <c r="C790" s="2"/>
     </row>
     <row r="791" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C791" s="4"/>
+      <c r="C791" s="2"/>
     </row>
     <row r="792" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C792" s="4"/>
+      <c r="C792" s="2"/>
     </row>
     <row r="793" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C793" s="4"/>
+      <c r="C793" s="2"/>
     </row>
     <row r="794" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C794" s="4"/>
+      <c r="C794" s="2"/>
     </row>
     <row r="795" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C795" s="4"/>
+      <c r="C795" s="2"/>
     </row>
     <row r="796" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C796" s="4"/>
+      <c r="C796" s="2"/>
     </row>
     <row r="797" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C797" s="4"/>
+      <c r="C797" s="2"/>
     </row>
     <row r="798" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C798" s="4"/>
+      <c r="C798" s="2"/>
     </row>
     <row r="799" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C799" s="4"/>
+      <c r="C799" s="2"/>
     </row>
     <row r="800" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C800" s="4"/>
+      <c r="C800" s="2"/>
     </row>
     <row r="801" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C801" s="4"/>
+      <c r="C801" s="2"/>
     </row>
     <row r="802" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C802" s="4"/>
+      <c r="C802" s="2"/>
     </row>
     <row r="803" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C803" s="4"/>
+      <c r="C803" s="2"/>
     </row>
     <row r="804" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C804" s="4"/>
+      <c r="C804" s="2"/>
     </row>
     <row r="805" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C805" s="4"/>
+      <c r="C805" s="2"/>
     </row>
     <row r="806" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C806" s="4"/>
+      <c r="C806" s="2"/>
     </row>
     <row r="807" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C807" s="4"/>
+      <c r="C807" s="2"/>
     </row>
     <row r="808" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C808" s="4"/>
+      <c r="C808" s="2"/>
     </row>
     <row r="809" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C809" s="4"/>
+      <c r="C809" s="2"/>
     </row>
     <row r="810" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C810" s="4"/>
+      <c r="C810" s="2"/>
     </row>
     <row r="811" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C811" s="4"/>
+      <c r="C811" s="2"/>
     </row>
     <row r="812" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C812" s="4"/>
+      <c r="C812" s="2"/>
     </row>
     <row r="813" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C813" s="4"/>
+      <c r="C813" s="2"/>
     </row>
     <row r="814" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C814" s="4"/>
+      <c r="C814" s="2"/>
     </row>
     <row r="815" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C815" s="4"/>
+      <c r="C815" s="2"/>
     </row>
     <row r="816" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C816" s="4"/>
+      <c r="C816" s="2"/>
     </row>
     <row r="817" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C817" s="4"/>
+      <c r="C817" s="2"/>
     </row>
     <row r="818" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C818" s="4"/>
+      <c r="C818" s="2"/>
     </row>
     <row r="819" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C819" s="4"/>
+      <c r="C819" s="2"/>
     </row>
     <row r="820" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C820" s="4"/>
+      <c r="C820" s="2"/>
     </row>
     <row r="821" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C821" s="4"/>
+      <c r="C821" s="2"/>
     </row>
     <row r="822" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C822" s="4"/>
+      <c r="C822" s="2"/>
     </row>
     <row r="823" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C823" s="4"/>
+      <c r="C823" s="2"/>
     </row>
     <row r="824" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C824" s="4"/>
+      <c r="C824" s="2"/>
     </row>
     <row r="825" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C825" s="4"/>
+      <c r="C825" s="2"/>
     </row>
     <row r="826" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C826" s="4"/>
+      <c r="C826" s="2"/>
     </row>
     <row r="827" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C827" s="4"/>
+      <c r="C827" s="2"/>
     </row>
     <row r="828" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C828" s="4"/>
+      <c r="C828" s="2"/>
     </row>
     <row r="829" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C829" s="4"/>
+      <c r="C829" s="2"/>
     </row>
     <row r="830" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C830" s="4"/>
+      <c r="C830" s="2"/>
     </row>
     <row r="831" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C831" s="4"/>
+      <c r="C831" s="2"/>
     </row>
     <row r="832" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C832" s="4"/>
+      <c r="C832" s="2"/>
     </row>
     <row r="833" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C833" s="4"/>
+      <c r="C833" s="2"/>
     </row>
     <row r="834" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C834" s="4"/>
+      <c r="C834" s="2"/>
     </row>
     <row r="835" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C835" s="4"/>
+      <c r="C835" s="2"/>
     </row>
     <row r="836" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C836" s="4"/>
+      <c r="C836" s="2"/>
     </row>
     <row r="837" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C837" s="4"/>
+      <c r="C837" s="2"/>
     </row>
     <row r="838" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C838" s="4"/>
+      <c r="C838" s="2"/>
     </row>
     <row r="839" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C839" s="4"/>
+      <c r="C839" s="2"/>
     </row>
     <row r="840" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C840" s="4"/>
+      <c r="C840" s="2"/>
     </row>
     <row r="841" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C841" s="4"/>
+      <c r="C841" s="2"/>
     </row>
     <row r="842" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C842" s="4"/>
+      <c r="C842" s="2"/>
     </row>
     <row r="843" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C843" s="4"/>
+      <c r="C843" s="2"/>
     </row>
     <row r="844" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C844" s="4"/>
+      <c r="C844" s="2"/>
     </row>
     <row r="845" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C845" s="4"/>
+      <c r="C845" s="2"/>
     </row>
     <row r="846" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C846" s="4"/>
+      <c r="C846" s="2"/>
     </row>
     <row r="847" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C847" s="4"/>
+      <c r="C847" s="2"/>
     </row>
     <row r="848" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C848" s="4"/>
+      <c r="C848" s="2"/>
     </row>
     <row r="849" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C849" s="4"/>
+      <c r="C849" s="2"/>
     </row>
     <row r="850" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C850" s="4"/>
+      <c r="C850" s="2"/>
     </row>
     <row r="851" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C851" s="4"/>
+      <c r="C851" s="2"/>
     </row>
     <row r="852" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C852" s="4"/>
+      <c r="C852" s="2"/>
     </row>
     <row r="853" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C853" s="4"/>
+      <c r="C853" s="2"/>
     </row>
     <row r="854" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C854" s="4"/>
+      <c r="C854" s="2"/>
     </row>
     <row r="855" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C855" s="4"/>
+      <c r="C855" s="2"/>
     </row>
     <row r="856" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C856" s="4"/>
+      <c r="C856" s="2"/>
     </row>
     <row r="857" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C857" s="4"/>
+      <c r="C857" s="2"/>
     </row>
     <row r="858" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C858" s="4"/>
+      <c r="C858" s="2"/>
     </row>
     <row r="859" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C859" s="4"/>
+      <c r="C859" s="2"/>
     </row>
     <row r="860" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C860" s="4"/>
+      <c r="C860" s="2"/>
     </row>
     <row r="861" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C861" s="4"/>
+      <c r="C861" s="2"/>
     </row>
     <row r="862" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C862" s="4"/>
+      <c r="C862" s="2"/>
     </row>
     <row r="863" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C863" s="4"/>
+      <c r="C863" s="2"/>
     </row>
     <row r="864" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C864" s="4"/>
+      <c r="C864" s="2"/>
     </row>
     <row r="865" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C865" s="4"/>
+      <c r="C865" s="2"/>
     </row>
     <row r="866" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C866" s="4"/>
+      <c r="C866" s="2"/>
     </row>
     <row r="867" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C867" s="4"/>
+      <c r="C867" s="2"/>
     </row>
     <row r="868" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C868" s="4"/>
+      <c r="C868" s="2"/>
     </row>
     <row r="869" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C869" s="4"/>
+      <c r="C869" s="2"/>
     </row>
     <row r="870" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C870" s="4"/>
+      <c r="C870" s="2"/>
     </row>
     <row r="871" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C871" s="4"/>
+      <c r="C871" s="2"/>
     </row>
     <row r="872" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C872" s="4"/>
+      <c r="C872" s="2"/>
     </row>
     <row r="873" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C873" s="4"/>
+      <c r="C873" s="2"/>
     </row>
     <row r="874" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C874" s="4"/>
+      <c r="C874" s="2"/>
     </row>
     <row r="875" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C875" s="4"/>
+      <c r="C875" s="2"/>
     </row>
     <row r="876" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C876" s="4"/>
+      <c r="C876" s="2"/>
     </row>
     <row r="877" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C877" s="4"/>
+      <c r="C877" s="2"/>
     </row>
     <row r="878" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C878" s="4"/>
+      <c r="C878" s="2"/>
     </row>
     <row r="879" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C879" s="4"/>
+      <c r="C879" s="2"/>
     </row>
     <row r="880" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C880" s="4"/>
+      <c r="C880" s="2"/>
     </row>
     <row r="881" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C881" s="4"/>
+      <c r="C881" s="2"/>
     </row>
     <row r="882" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C882" s="4"/>
+      <c r="C882" s="2"/>
     </row>
     <row r="883" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C883" s="4"/>
+      <c r="C883" s="2"/>
     </row>
     <row r="884" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C884" s="4"/>
+      <c r="C884" s="2"/>
     </row>
     <row r="885" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C885" s="4"/>
+      <c r="C885" s="2"/>
     </row>
     <row r="886" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C886" s="4"/>
+      <c r="C886" s="2"/>
     </row>
     <row r="887" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C887" s="4"/>
+      <c r="C887" s="2"/>
     </row>
     <row r="888" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C888" s="4"/>
+      <c r="C888" s="2"/>
     </row>
     <row r="889" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C889" s="4"/>
+      <c r="C889" s="2"/>
     </row>
     <row r="890" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C890" s="4"/>
+      <c r="C890" s="2"/>
     </row>
     <row r="891" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C891" s="4"/>
+      <c r="C891" s="2"/>
     </row>
     <row r="892" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C892" s="4"/>
+      <c r="C892" s="2"/>
     </row>
     <row r="893" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C893" s="4"/>
+      <c r="C893" s="2"/>
     </row>
     <row r="894" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C894" s="4"/>
+      <c r="C894" s="2"/>
     </row>
     <row r="895" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C895" s="4"/>
+      <c r="C895" s="2"/>
     </row>
     <row r="896" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C896" s="4"/>
+      <c r="C896" s="2"/>
     </row>
     <row r="897" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C897" s="4"/>
+      <c r="C897" s="2"/>
     </row>
     <row r="898" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C898" s="4"/>
+      <c r="C898" s="2"/>
     </row>
     <row r="899" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C899" s="4"/>
+      <c r="C899" s="2"/>
     </row>
     <row r="900" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C900" s="4"/>
+      <c r="C900" s="2"/>
     </row>
     <row r="901" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C901" s="4"/>
+      <c r="C901" s="2"/>
     </row>
     <row r="902" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C902" s="4"/>
+      <c r="C902" s="2"/>
     </row>
     <row r="903" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C903" s="4"/>
+      <c r="C903" s="2"/>
     </row>
     <row r="904" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C904" s="4"/>
+      <c r="C904" s="2"/>
     </row>
     <row r="905" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C905" s="4"/>
+      <c r="C905" s="2"/>
     </row>
     <row r="906" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C906" s="4"/>
+      <c r="C906" s="2"/>
     </row>
     <row r="907" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C907" s="4"/>
+      <c r="C907" s="2"/>
     </row>
     <row r="908" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C908" s="4"/>
+      <c r="C908" s="2"/>
     </row>
     <row r="909" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C909" s="4"/>
+      <c r="C909" s="2"/>
     </row>
     <row r="910" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C910" s="4"/>
+      <c r="C910" s="2"/>
     </row>
     <row r="911" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C911" s="4"/>
+      <c r="C911" s="2"/>
     </row>
     <row r="912" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C912" s="4"/>
+      <c r="C912" s="2"/>
     </row>
     <row r="913" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C913" s="4"/>
+      <c r="C913" s="2"/>
     </row>
     <row r="914" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C914" s="4"/>
+      <c r="C914" s="2"/>
     </row>
     <row r="915" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C915" s="4"/>
+      <c r="C915" s="2"/>
     </row>
     <row r="916" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C916" s="4"/>
+      <c r="C916" s="2"/>
     </row>
     <row r="917" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C917" s="4"/>
+      <c r="C917" s="2"/>
     </row>
     <row r="918" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C918" s="4"/>
+      <c r="C918" s="2"/>
     </row>
     <row r="919" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C919" s="4"/>
+      <c r="C919" s="2"/>
     </row>
     <row r="920" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C920" s="4"/>
+      <c r="C920" s="2"/>
     </row>
     <row r="921" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C921" s="4"/>
+      <c r="C921" s="2"/>
     </row>
     <row r="922" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C922" s="4"/>
+      <c r="C922" s="2"/>
     </row>
     <row r="923" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C923" s="4"/>
+      <c r="C923" s="2"/>
     </row>
     <row r="924" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C924" s="4"/>
+      <c r="C924" s="2"/>
     </row>
     <row r="925" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C925" s="4"/>
+      <c r="C925" s="2"/>
     </row>
     <row r="926" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C926" s="4"/>
+      <c r="C926" s="2"/>
     </row>
     <row r="927" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C927" s="4"/>
+      <c r="C927" s="2"/>
     </row>
     <row r="928" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C928" s="4"/>
+      <c r="C928" s="2"/>
     </row>
     <row r="929" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C929" s="4"/>
+      <c r="C929" s="2"/>
     </row>
     <row r="930" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C930" s="4"/>
+      <c r="C930" s="2"/>
     </row>
     <row r="931" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C931" s="4"/>
+      <c r="C931" s="2"/>
     </row>
     <row r="932" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C932" s="4"/>
+      <c r="C932" s="2"/>
     </row>
     <row r="933" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C933" s="4"/>
+      <c r="C933" s="2"/>
     </row>
     <row r="934" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C934" s="4"/>
+      <c r="C934" s="2"/>
     </row>
     <row r="935" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C935" s="4"/>
+      <c r="C935" s="2"/>
     </row>
     <row r="936" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C936" s="4"/>
+      <c r="C936" s="2"/>
     </row>
     <row r="937" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C937" s="4"/>
+      <c r="C937" s="2"/>
     </row>
     <row r="938" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C938" s="4"/>
+      <c r="C938" s="2"/>
     </row>
     <row r="939" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C939" s="4"/>
+      <c r="C939" s="2"/>
     </row>
     <row r="940" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C940" s="4"/>
+      <c r="C940" s="2"/>
     </row>
     <row r="941" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C941" s="4"/>
+      <c r="C941" s="2"/>
     </row>
     <row r="942" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C942" s="4"/>
+      <c r="C942" s="2"/>
     </row>
     <row r="943" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C943" s="4"/>
+      <c r="C943" s="2"/>
     </row>
     <row r="944" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C944" s="4"/>
+      <c r="C944" s="2"/>
     </row>
     <row r="945" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C945" s="4"/>
+      <c r="C945" s="2"/>
     </row>
     <row r="946" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C946" s="4"/>
+      <c r="C946" s="2"/>
     </row>
     <row r="947" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C947" s="4"/>
+      <c r="C947" s="2"/>
     </row>
     <row r="948" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C948" s="4"/>
+      <c r="C948" s="2"/>
     </row>
     <row r="949" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C949" s="4"/>
+      <c r="C949" s="2"/>
     </row>
     <row r="950" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C950" s="4"/>
+      <c r="C950" s="2"/>
     </row>
     <row r="951" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C951" s="4"/>
+      <c r="C951" s="2"/>
     </row>
     <row r="952" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C952" s="4"/>
+      <c r="C952" s="2"/>
     </row>
     <row r="953" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C953" s="4"/>
+      <c r="C953" s="2"/>
     </row>
     <row r="954" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C954" s="4"/>
+      <c r="C954" s="2"/>
     </row>
     <row r="955" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C955" s="4"/>
+      <c r="C955" s="2"/>
     </row>
     <row r="956" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C956" s="4"/>
+      <c r="C956" s="2"/>
     </row>
     <row r="957" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C957" s="4"/>
+      <c r="C957" s="2"/>
     </row>
     <row r="958" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C958" s="4"/>
+      <c r="C958" s="2"/>
     </row>
     <row r="959" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C959" s="4"/>
+      <c r="C959" s="2"/>
     </row>
     <row r="960" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C960" s="4"/>
+      <c r="C960" s="2"/>
     </row>
     <row r="961" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C961" s="4"/>
+      <c r="C961" s="2"/>
     </row>
     <row r="962" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C962" s="4"/>
+      <c r="C962" s="2"/>
     </row>
     <row r="963" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C963" s="4"/>
+      <c r="C963" s="2"/>
     </row>
     <row r="964" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C964" s="4"/>
+      <c r="C964" s="2"/>
     </row>
     <row r="965" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C965" s="4"/>
+      <c r="C965" s="2"/>
     </row>
     <row r="966" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C966" s="4"/>
+      <c r="C966" s="2"/>
     </row>
     <row r="967" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C967" s="4"/>
+      <c r="C967" s="2"/>
     </row>
     <row r="968" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C968" s="4"/>
+      <c r="C968" s="2"/>
     </row>
     <row r="969" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C969" s="4"/>
+      <c r="C969" s="2"/>
     </row>
     <row r="970" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C970" s="4"/>
+      <c r="C970" s="2"/>
     </row>
     <row r="971" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C971" s="4"/>
+      <c r="C971" s="2"/>
     </row>
     <row r="972" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C972" s="4"/>
+      <c r="C972" s="2"/>
     </row>
     <row r="973" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C973" s="4"/>
+      <c r="C973" s="2"/>
     </row>
     <row r="974" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C974" s="4"/>
+      <c r="C974" s="2"/>
     </row>
     <row r="975" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C975" s="4"/>
+      <c r="C975" s="2"/>
     </row>
     <row r="976" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C976" s="4"/>
+      <c r="C976" s="2"/>
     </row>
     <row r="977" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C977" s="4"/>
+      <c r="C977" s="2"/>
     </row>
     <row r="978" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C978" s="4"/>
+      <c r="C978" s="2"/>
     </row>
     <row r="979" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C979" s="4"/>
+      <c r="C979" s="2"/>
     </row>
     <row r="980" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C980" s="4"/>
+      <c r="C980" s="2"/>
     </row>
     <row r="981" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C981" s="4"/>
+      <c r="C981" s="2"/>
     </row>
     <row r="982" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C982" s="4"/>
+      <c r="C982" s="2"/>
     </row>
     <row r="983" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C983" s="4"/>
+      <c r="C983" s="2"/>
     </row>
     <row r="984" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C984" s="4"/>
+      <c r="C984" s="2"/>
     </row>
     <row r="985" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C985" s="4"/>
+      <c r="C985" s="2"/>
     </row>
     <row r="986" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C986" s="4"/>
+      <c r="C986" s="2"/>
     </row>
     <row r="987" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C987" s="4"/>
+      <c r="C987" s="2"/>
     </row>
     <row r="988" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C988" s="4"/>
+      <c r="C988" s="2"/>
     </row>
     <row r="989" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C989" s="4"/>
+      <c r="C989" s="2"/>
     </row>
     <row r="990" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C990" s="4"/>
+      <c r="C990" s="2"/>
     </row>
     <row r="991" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C991" s="4"/>
+      <c r="C991" s="2"/>
     </row>
     <row r="992" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C992" s="4"/>
+      <c r="C992" s="2"/>
     </row>
     <row r="993" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C993" s="4"/>
+      <c r="C993" s="2"/>
     </row>
     <row r="994" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C994" s="4"/>
+      <c r="C994" s="2"/>
     </row>
     <row r="995" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C995" s="4"/>
+      <c r="C995" s="2"/>
     </row>
     <row r="996" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C996" s="4"/>
+      <c r="C996" s="2"/>
     </row>
     <row r="997" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C997" s="4"/>
+      <c r="C997" s="2"/>
     </row>
     <row r="998" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C998" s="4"/>
+      <c r="C998" s="2"/>
     </row>
     <row r="999" spans="3:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="C999" s="4"/>
+      <c r="C999" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/raw_ts_data/fd/fd12_metadata.xlsx
+++ b/raw_ts_data/fd/fd12_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncw02\Downloads\IGEA\raw_ts_data\fd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9A731B-4E5E-4247-8F11-6563718B9005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0995EC1-C1B6-4383-9C40-CD9946B0CDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02675917-6FB0-1F44-8417-5533CB1D953F}"/>
   </bookViews>
@@ -305,7 +305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,6 +327,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -368,13 +374,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,7 +703,7 @@
   <dimension ref="A1:AB999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="J2" sqref="J2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -714,65 +722,65 @@
     <col min="15" max="15" width="57.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="13" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:28" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -796,13 +804,19 @@
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="J2" s="17">
+        <v>423111</v>
+      </c>
+      <c r="K2" s="17">
+        <v>7628839</v>
+      </c>
+      <c r="L2" s="17">
+        <v>513</v>
+      </c>
+      <c r="M2" s="16"/>
       <c r="N2" s="1" t="s">
         <v>18</v>
       </c>
@@ -964,6 +978,15 @@
       <c r="I6" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="J6" s="14">
+        <v>420493</v>
+      </c>
+      <c r="K6" s="14">
+        <v>7622832</v>
+      </c>
+      <c r="L6" s="14">
+        <v>589</v>
+      </c>
       <c r="O6" s="5" t="s">
         <v>30</v>
       </c>
@@ -1586,19 +1609,19 @@
       </c>
     </row>
     <row r="23" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="2">
         <v>44711</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="12">
         <v>0.63055555555555554</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="12">
         <v>0.77708333333333324</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="12">
         <v>0.6875</v>
       </c>
       <c r="G23">
@@ -1630,19 +1653,19 @@
       </c>
     </row>
     <row r="24" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C24" s="2">
         <v>44712</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="12">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="12">
         <v>0.77083333333333337</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="12">
         <v>0.67361111111111116</v>
       </c>
       <c r="G24">
@@ -4599,9 +4622,6 @@
       <c r="C999" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I2:M2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>